--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>E</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>Arap</t>
+  </si>
+  <si>
+    <t>Bizans</t>
+  </si>
+  <si>
+    <t>Ermeni</t>
+  </si>
+  <si>
+    <t>Selçuk</t>
   </si>
   <si>
     <t>p1</t>
@@ -91,7 +94,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="13"/>
@@ -148,7 +151,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -158,22 +161,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -243,14 +240,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -345,9 +342,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -427,7 +424,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -455,10 +452,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -714,9 +711,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1004,7 +1001,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1032,10 +1029,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1286,14 +1283,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="19" width="10.8516" style="1" customWidth="1"/>
-    <col min="20" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1307,562 +1321,538 @@
       <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="4"/>
+      <c r="E1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>14.04</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>5.6</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="E2" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>0.3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>9.65</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.88</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4.39</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2.4</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="E5" s="5">
+        <v>0.55</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
         <v>0.6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2.63</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="E6" s="5">
+        <v>1.1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
         <v>3.9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>9.65</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1.6</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="4"/>
+      <c r="E7" s="5">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
         <v>0.3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>5.26</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="E8" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.88</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>6.4</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="E9" s="5">
+        <v>0.55</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
         <v>9.5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>3.51</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1.6</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="E10" s="5">
+        <v>8.52</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="4"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.8</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="E11" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="4"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="4"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="A13" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
         <v>1.2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2.4</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="E13" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="4"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
         <v>2.9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1.75</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>49.6</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="4"/>
+      <c r="E14" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
         <v>47.8</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>35.09</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>12.8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="E15" s="5">
+        <v>27.75</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="4"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
         <v>6.4</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>11.4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="E16" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="4"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
         <v>4.2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>0.88</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4.8</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="E17" s="5">
+        <v>7.97</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="4"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
         <v>22.2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="E18" s="5">
+        <v>27.47</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="92" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>E</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>Moslem Arabs</t>
+  </si>
+  <si>
+    <t>Eastern Roman Empire</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Seljuks</t>
   </si>
   <si>
     <t>p1</t>
@@ -164,16 +167,16 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1286,14 +1289,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="19" width="10.8516" style="1" customWidth="1"/>
-    <col min="20" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1307,7 +1310,9 @@
       <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" t="s" s="3">
+        <v>3</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1320,23 +1325,24 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="4"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>14.04</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>5.6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="7">
+        <v>0.27</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1350,22 +1356,23 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>9.65</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1379,22 +1386,23 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>0.88</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1408,22 +1416,23 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>4.39</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2.4</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="7">
+        <v>0.55</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1437,22 +1446,23 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
         <v>2.63</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="7">
+        <v>1.1</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1466,22 +1476,23 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.74</v>
+      </c>
+      <c r="C7" s="7">
         <v>9.65</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>1.6</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="7">
+        <v>8.789999999999999</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1494,23 +1505,24 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="4"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="C8" s="7">
         <v>5.26</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7">
+        <v>0.82</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1524,22 +1536,23 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>0.88</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>6.4</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7">
+        <v>0.55</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1553,22 +1566,23 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7.66</v>
+      </c>
+      <c r="C10" s="7">
         <v>3.51</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>1.6</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7">
+        <v>8.52</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1582,22 +1596,23 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="4"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A11" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>0.8</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="7">
+        <v>0.82</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1611,22 +1626,23 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="4"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1640,22 +1656,23 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="4"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>2.4</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="7">
+        <v>1.92</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1669,22 +1686,23 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="4"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="A14" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.09</v>
+      </c>
+      <c r="C14" s="7">
         <v>1.75</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>49.6</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="7">
+        <v>8.24</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1697,23 +1715,24 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="4"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
-        <v>47.8</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="A15" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
+        <v>48.54</v>
+      </c>
+      <c r="C15" s="7">
         <v>35.09</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>12.8</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="7">
+        <v>27.75</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1727,22 +1746,23 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="4"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="A16" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="C16" s="7">
         <v>11.4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="7">
+        <v>5.22</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1756,22 +1776,23 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="4"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="A17" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.46</v>
+      </c>
+      <c r="C17" s="7">
         <v>0.88</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>4.8</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="7">
+        <v>7.97</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1785,22 +1806,23 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="4"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6">
-        <v>22.2</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="A18" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7">
+        <v>27.37</v>
+      </c>
+      <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>4</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7">
+        <v>27.47</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1814,49 +1836,6 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -94,7 +94,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="13"/>
@@ -122,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -145,38 +145,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -197,7 +281,9 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffcacaca"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffcacaca"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -246,14 +332,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -348,9 +434,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -430,7 +516,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -458,10 +544,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -717,9 +803,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1007,7 +1093,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1035,10 +1121,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1289,14 +1375,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="18" width="10.8516" style="1" customWidth="1"/>
-    <col min="19" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.8516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.8516" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.8516" style="1" customWidth="1"/>
+    <col min="28" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1314,18 +1426,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="6">
@@ -1338,510 +1459,663 @@
         <v>14.04</v>
       </c>
       <c r="D2" s="7">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="E2" s="7">
         <v>0.27</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>9.65</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>0.88</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="2"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>4.39</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>2.4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>0.55</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="2"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>2.63</v>
       </c>
-      <c r="D6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
         <v>1.1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="2"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>5.74</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>9.65</v>
       </c>
-      <c r="D7" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="E7" s="10">
         <v>8.789999999999999</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>0.36</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>5.26</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="10">
         <v>0.82</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>0</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>0.88</v>
       </c>
-      <c r="D9" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="10">
         <v>0.55</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>7.66</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>3.51</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>1.6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="10">
         <v>8.52</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>0.36</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>0.8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>0.82</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>0.36</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>2.4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="10">
         <v>1.92</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="A14" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>1.09</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>1.75</v>
       </c>
-      <c r="D14" s="7">
-        <v>49.6</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="E14" s="10">
         <v>8.24</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+      <c r="A15" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>48.54</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>35.09</v>
       </c>
-      <c r="D15" s="7">
-        <v>12.8</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="10">
+        <v>54.5</v>
+      </c>
+      <c r="E15" s="10">
         <v>27.75</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="6">
+      <c r="A16" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>7.3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <v>11.4</v>
       </c>
-      <c r="D16" s="7">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="E16" s="10">
         <v>5.22</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>1.46</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <v>0.88</v>
       </c>
-      <c r="D17" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="E17" s="10">
         <v>7.97</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="2"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="10">
         <v>27.37</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="10">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="E18" s="10">
         <v>27.47</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="2"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="92" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>Moslem Arabs</t>
-  </si>
-  <si>
-    <t>Eastern Roman Empire</t>
-  </si>
-  <si>
-    <t>Armenia</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+  <si>
+    <t>Andalusia</t>
+  </si>
+  <si>
+    <t>ME Arabs</t>
+  </si>
+  <si>
+    <t>Eastern Roman</t>
+  </si>
+  <si>
+    <t>Armenian</t>
   </si>
   <si>
     <t>Seljuks</t>
@@ -29,33 +32,108 @@
     <t>p1</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>14.04</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
     <t>p1m1</t>
   </si>
   <si>
+    <t>9.65</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
     <t>p1g1</t>
   </si>
   <si>
+    <t>0.88</t>
+  </si>
+  <si>
     <t>c1m1</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
     <t>p211</t>
   </si>
   <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>p2mm</t>
   </si>
   <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
     <t>p2mg</t>
   </si>
   <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
     <t>p2gg</t>
   </si>
   <si>
     <t>c2mm</t>
   </si>
   <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>15.93</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>8.52</t>
+  </si>
+  <si>
     <t>p3</t>
   </si>
   <si>
+    <t>0.96</t>
+  </si>
+  <si>
     <t>p3m1</t>
   </si>
   <si>
@@ -65,16 +143,70 @@
     <t>p4</t>
   </si>
   <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
     <t>p4mm</t>
   </si>
   <si>
+    <t>76.92</t>
+  </si>
+  <si>
+    <t>33.19</t>
+  </si>
+  <si>
+    <t>35.09</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>27.75</t>
+  </si>
+  <si>
     <t>p4gm</t>
   </si>
   <si>
+    <t>5.77</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
     <t>p6</t>
   </si>
   <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>7.97</t>
+  </si>
+  <si>
     <t>p6mm</t>
+  </si>
+  <si>
+    <t>8.65</t>
+  </si>
+  <si>
+    <t>35.84</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>27.47</t>
   </si>
 </sst>
 </file>
@@ -85,7 +217,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -94,12 +226,23 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
     <font>
       <b val="1"/>
@@ -117,17 +260,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -145,81 +318,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -233,34 +331,34 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -280,10 +378,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffcacaca"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffcacaca"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -332,14 +429,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -434,9 +531,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -516,7 +613,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -544,10 +641,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -803,9 +900,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1093,7 +1190,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1121,10 +1218,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1375,43 +1472,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.8516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.8516" style="1" customWidth="1"/>
-    <col min="28" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" t="s" s="3">
         <v>0</v>
@@ -1425,8 +1496,10 @@
       <c r="E1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="F1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -1437,35 +1510,28 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+      <c r="R1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>14.04</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5"/>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1476,35 +1542,28 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="R2" s="9"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10">
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
-        <v>9.65</v>
-      </c>
-      <c r="D3" s="10">
-        <v>4.9</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1515,35 +1574,28 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="R3" s="9"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
+      <c r="C4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>14</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1554,35 +1606,28 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="R4" s="9"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4.39</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.55</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1593,35 +1638,28 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="R5" s="9"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
-        <v>2.63</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1.1</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
+      <c r="F6" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1632,35 +1670,28 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="R6" s="9"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10">
-        <v>5.74</v>
-      </c>
-      <c r="C7" s="10">
-        <v>9.65</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5.7</v>
-      </c>
-      <c r="E7" s="10">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1671,35 +1702,28 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="R7" s="11"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5.26</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1710,35 +1734,28 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="R8" s="9"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.55</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1749,35 +1766,28 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="R9" s="9"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10">
-        <v>7.66</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3.51</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="E10" s="10">
-        <v>8.52</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1788,35 +1798,28 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="R10" s="9"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="C11" s="10">
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
+      <c r="E11" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1827,26 +1830,17 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="R11" s="9"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>6</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -1854,8 +1848,10 @@
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1866,35 +1862,28 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="R12" s="9"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="C13" s="10">
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1.92</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
+      <c r="E13" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1905,35 +1894,28 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="R13" s="9"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1.09</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="D14" s="10">
-        <v>12.2</v>
-      </c>
-      <c r="E14" s="10">
-        <v>8.24</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1944,35 +1926,28 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="R14" s="11"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B15" s="10">
-        <v>48.54</v>
-      </c>
-      <c r="C15" s="10">
-        <v>35.09</v>
-      </c>
-      <c r="D15" s="10">
-        <v>54.5</v>
-      </c>
-      <c r="E15" s="10">
-        <v>27.75</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1983,35 +1958,28 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="R15" s="9"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="C16" s="10">
-        <v>11.4</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4.9</v>
-      </c>
-      <c r="E16" s="10">
-        <v>5.22</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2022,35 +1990,28 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="R16" s="9"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1.46</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="E17" s="10">
-        <v>7.97</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2061,61 +2022,45 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="R17" s="9"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10">
-        <v>27.37</v>
-      </c>
-      <c r="C18" s="10">
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10">
         <v>0</v>
       </c>
-      <c r="D18" s="10">
-        <v>6.6</v>
-      </c>
-      <c r="E18" s="10">
-        <v>27.47</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
+      <c r="E18" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="R18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="92" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Andalusia</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Armenian</t>
   </si>
   <si>
-    <t>Seljuks</t>
+    <t>Rum Seljuks</t>
+  </si>
+  <si>
+    <t>Great Seljuks</t>
   </si>
   <si>
     <t>p1</t>
@@ -77,6 +80,27 @@
   </si>
   <si>
     <t>p6mm</t>
+  </si>
+  <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>103 tane</t>
+  </si>
+  <si>
+    <t>225 tane</t>
+  </si>
+  <si>
+    <t>114tane</t>
+  </si>
+  <si>
+    <t>125tane</t>
+  </si>
+  <si>
+    <t>364tane</t>
   </si>
 </sst>
 </file>
@@ -326,7 +350,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -357,7 +381,7 @@
     <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -375,16 +399,25 @@
     <xf numFmtId="59" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1497,8 +1530,9 @@
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1719" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.35156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.35156" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.85156" style="1" customWidth="1"/>
     <col min="10" max="12" width="7.35156" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.85156" style="1" customWidth="1"/>
@@ -1525,10 +1559,12 @@
       <c r="E1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" t="s" s="4">
+        <v>5</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -1545,7 +1581,7 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" t="s" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8">
         <v>0.97</v>
@@ -1559,10 +1595,12 @@
       <c r="E2" s="9">
         <v>0.8</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.27</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10">
+        <v>0.8</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1579,7 +1617,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" t="s" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -1593,10 +1631,12 @@
       <c r="E3" s="13">
         <v>4.9</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1613,7 +1653,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -1627,10 +1667,12 @@
       <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1647,7 +1689,7 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -1661,10 +1703,12 @@
       <c r="E5" s="13">
         <v>2.4</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>0.55</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1681,7 +1725,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12">
         <v>0.97</v>
@@ -1695,10 +1739,12 @@
       <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>1.1</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="16">
+        <v>2.4</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1715,7 +1761,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="12">
         <v>1.942</v>
@@ -1729,10 +1775,12 @@
       <c r="E7" s="13">
         <v>5.7</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>8.789999999999999</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="16">
+        <v>6.4</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1749,7 +1797,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -1763,10 +1811,12 @@
       <c r="E8" s="13">
         <v>0.8</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0.82</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1783,7 +1833,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
@@ -1797,10 +1847,12 @@
       <c r="E9" s="13">
         <v>0.8</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0.55</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="16">
+        <v>3.2</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1817,7 +1869,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="12">
         <v>1.942</v>
@@ -1831,10 +1883,12 @@
       <c r="E10" s="13">
         <v>1.6</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>8.52</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="16">
+        <v>11.2</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1851,7 +1905,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="12">
         <v>0.97</v>
@@ -1865,10 +1919,12 @@
       <c r="E11" s="13">
         <v>0.8</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0.82</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1885,7 +1941,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
@@ -1899,10 +1955,12 @@
       <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1919,7 +1977,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -1933,10 +1991,12 @@
       <c r="E13" s="13">
         <v>2.4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>1.92</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="16">
+        <v>1.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1953,7 +2013,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12">
         <v>27.184</v>
@@ -1967,10 +2027,12 @@
       <c r="E14" s="13">
         <v>12.2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>8.24</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="16">
+        <v>9.6</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1987,7 +2049,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="12">
         <v>51.46</v>
@@ -2001,10 +2063,12 @@
       <c r="E15" s="13">
         <v>54.5</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>27.75</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="16">
+        <v>25.6</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2021,7 +2085,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="12">
         <v>5.83</v>
@@ -2035,10 +2099,12 @@
       <c r="E16" s="13">
         <v>4.9</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>5.22</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="16">
+        <v>12.8</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2055,7 +2121,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="12">
         <v>2.91</v>
@@ -2069,10 +2135,12 @@
       <c r="E17" s="13">
         <v>1.6</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>7.97</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="16">
+        <v>8</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2089,7 +2157,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="12">
         <v>5.83</v>
@@ -2103,10 +2171,12 @@
       <c r="E18" s="13">
         <v>6.6</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>27.47</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="16">
+        <v>18.8</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2122,12 +2192,12 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2144,13 +2214,33 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="5"/>
+      <c r="A20" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="B20" s="20">
+        <f>SUM(B2:B18)</f>
+        <v>100.008</v>
+      </c>
+      <c r="C20" s="20">
+        <f>SUM(C2:C18)</f>
+        <v>99.994</v>
+      </c>
+      <c r="D20" s="21">
+        <f>SUM(D2:D18)</f>
+        <v>100.01</v>
+      </c>
+      <c r="E20" s="21">
+        <f>SUM(E2:E18)</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="21">
+        <f>SUM(F2:F18)</f>
+        <v>99.99000000000001</v>
+      </c>
+      <c r="G20" s="21">
+        <f>SUM(G2:G18)</f>
+        <v>102</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2166,12 +2256,24 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" t="s" s="19">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s" s="22">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s" s="22">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s" s="22">
+        <v>29</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2320,25 +2422,25 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="22"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2348,39 +2450,39 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="28"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
       <c r="R30" s="5"/>
       <c r="S30" s="6"/>
       <c r="T30" s="5"/>

--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -16,7 +16,7 @@
     <t>Andalusia</t>
   </si>
   <si>
-    <t>ME Arabs</t>
+    <t>Middle East Arabs</t>
   </si>
   <si>
     <t>Eastern Roman</t>
@@ -350,7 +350,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -397,9 +397,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1527,7 +1524,7 @@
   <cols>
     <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.6719" style="1" customWidth="1"/>
@@ -1670,7 +1667,7 @@
       <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.8</v>
       </c>
       <c r="H4" s="5"/>
@@ -1706,7 +1703,7 @@
       <c r="F5" s="13">
         <v>0.55</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
       <c r="H5" s="5"/>
@@ -1742,7 +1739,7 @@
       <c r="F6" s="13">
         <v>1.1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>2.4</v>
       </c>
       <c r="H6" s="5"/>
@@ -1778,7 +1775,7 @@
       <c r="F7" s="13">
         <v>8.789999999999999</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>6.4</v>
       </c>
       <c r="H7" s="5"/>
@@ -1814,7 +1811,7 @@
       <c r="F8" s="13">
         <v>0.82</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>0.8</v>
       </c>
       <c r="H8" s="5"/>
@@ -1850,7 +1847,7 @@
       <c r="F9" s="13">
         <v>0.55</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>3.2</v>
       </c>
       <c r="H9" s="5"/>
@@ -1886,7 +1883,7 @@
       <c r="F10" s="13">
         <v>8.52</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>11.2</v>
       </c>
       <c r="H10" s="5"/>
@@ -1922,7 +1919,7 @@
       <c r="F11" s="13">
         <v>0.82</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>0</v>
       </c>
       <c r="H11" s="5"/>
@@ -1958,7 +1955,7 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
       <c r="H12" s="5"/>
@@ -1994,7 +1991,7 @@
       <c r="F13" s="13">
         <v>1.92</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>1.6</v>
       </c>
       <c r="H13" s="5"/>
@@ -2030,7 +2027,7 @@
       <c r="F14" s="13">
         <v>8.24</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <v>9.6</v>
       </c>
       <c r="H14" s="5"/>
@@ -2066,7 +2063,7 @@
       <c r="F15" s="13">
         <v>27.75</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="14">
         <v>25.6</v>
       </c>
       <c r="H15" s="5"/>
@@ -2102,7 +2099,7 @@
       <c r="F16" s="13">
         <v>5.22</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <v>12.8</v>
       </c>
       <c r="H16" s="5"/>
@@ -2138,7 +2135,7 @@
       <c r="F17" s="13">
         <v>7.97</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>8</v>
       </c>
       <c r="H17" s="5"/>
@@ -2174,7 +2171,7 @@
       <c r="F18" s="13">
         <v>27.47</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>18.8</v>
       </c>
       <c r="H18" s="5"/>
@@ -2192,12 +2189,12 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2214,30 +2211,30 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" t="s" s="19">
+      <c r="A20" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <f>SUM(B2:B18)</f>
         <v>100.008</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f>SUM(C2:C18)</f>
         <v>99.994</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f>SUM(D2:D18)</f>
         <v>100.01</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f>SUM(E2:E18)</f>
         <v>100</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <f>SUM(F2:F18)</f>
         <v>99.99000000000001</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <f>SUM(G2:G18)</f>
         <v>102</v>
       </c>
@@ -2256,22 +2253,22 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" t="s" s="19">
+      <c r="A21" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="B21" t="s" s="22">
+      <c r="B21" t="s" s="21">
         <v>25</v>
       </c>
-      <c r="C21" t="s" s="22">
+      <c r="C21" t="s" s="21">
         <v>26</v>
       </c>
-      <c r="D21" t="s" s="22">
+      <c r="D21" t="s" s="21">
         <v>27</v>
       </c>
-      <c r="E21" t="s" s="22">
+      <c r="E21" t="s" s="21">
         <v>28</v>
       </c>
-      <c r="F21" t="s" s="22">
+      <c r="F21" t="s" s="21">
         <v>29</v>
       </c>
       <c r="G21" s="5"/>
@@ -2422,25 +2419,25 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2450,39 +2447,39 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="28"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="27"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
       <c r="R30" s="5"/>
       <c r="S30" s="6"/>
       <c r="T30" s="5"/>

--- a/symm_groups.xlsx
+++ b/symm_groups.xlsx
@@ -360,79 +360,79 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -653,12 +653,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -691,10 +691,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -942,12 +942,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1262,10 +1262,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1542,7 +1542,7 @@
     <col min="21" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" ht="25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" t="s" s="3">
         <v>0</v>
@@ -1576,7 +1576,7 @@
       <c r="S1" s="6"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" ht="25" customHeight="1">
       <c r="A2" t="s" s="7">
         <v>6</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="S2" s="6"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" ht="25" customHeight="1">
       <c r="A3" t="s" s="11">
         <v>7</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" ht="25" customHeight="1">
       <c r="A4" t="s" s="11">
         <v>8</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" ht="25" customHeight="1">
       <c r="A5" t="s" s="11">
         <v>9</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" ht="25" customHeight="1">
       <c r="A6" t="s" s="11">
         <v>10</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="25" customHeight="1">
       <c r="A7" t="s" s="11">
         <v>11</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" t="s" s="11">
         <v>12</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" ht="25" customHeight="1">
       <c r="A9" t="s" s="11">
         <v>13</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" ht="25" customHeight="1">
       <c r="A10" t="s" s="11">
         <v>14</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" ht="25" customHeight="1">
       <c r="A11" t="s" s="11">
         <v>15</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" ht="25" customHeight="1">
       <c r="A12" t="s" s="11">
         <v>16</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" ht="25" customHeight="1">
       <c r="A13" t="s" s="11">
         <v>17</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" ht="25" customHeight="1">
       <c r="A14" t="s" s="11">
         <v>18</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" ht="25" customHeight="1">
       <c r="A15" t="s" s="11">
         <v>19</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" ht="25" customHeight="1">
       <c r="A16" t="s" s="11">
         <v>20</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" ht="25" customHeight="1">
       <c r="A17" t="s" s="11">
         <v>21</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" ht="25" customHeight="1">
       <c r="A18" t="s" s="11">
         <v>22</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>27.47</v>
       </c>
       <c r="G18" s="14">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2188,7 +2188,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" ht="24.75" customHeight="1">
+    <row r="19" ht="25" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2210,7 +2210,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" ht="25" customHeight="1">
       <c r="A20" t="s" s="18">
         <v>23</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="G20" s="20">
         <f>SUM(G2:G18)</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2252,7 +2252,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" ht="25" customHeight="1">
       <c r="A21" t="s" s="18">
         <v>24</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2308,7 +2308,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2330,7 +2330,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2352,7 +2352,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2374,7 +2374,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2396,7 +2396,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2418,7 +2418,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" ht="17" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2440,7 +2440,7 @@
       <c r="S28" s="24"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" ht="17" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2462,7 +2462,7 @@
       <c r="S29" s="26"/>
       <c r="T29" s="27"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" ht="17" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2484,7 +2484,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2506,7 +2506,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2528,7 +2528,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2550,7 +2550,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2572,7 +2572,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2594,7 +2594,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2616,7 +2616,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2638,7 +2638,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2660,7 +2660,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2682,7 +2682,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2704,7 +2704,7 @@
       <c r="S40" s="6"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2726,7 +2726,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2748,7 +2748,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2770,7 +2770,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2792,7 +2792,7 @@
       <c r="S44" s="6"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2814,7 +2814,7 @@
       <c r="S45" s="6"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2836,7 +2836,7 @@
       <c r="S46" s="6"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2858,7 +2858,7 @@
       <c r="S47" s="6"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2880,7 +2880,7 @@
       <c r="S48" s="6"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2902,7 +2902,7 @@
       <c r="S49" s="6"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2924,7 +2924,7 @@
       <c r="S50" s="6"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2946,7 +2946,7 @@
       <c r="S51" s="6"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2968,7 +2968,7 @@
       <c r="S52" s="6"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2990,7 +2990,7 @@
       <c r="S53" s="6"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3012,7 +3012,7 @@
       <c r="S54" s="6"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3034,7 +3034,7 @@
       <c r="S55" s="6"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3056,7 +3056,7 @@
       <c r="S56" s="6"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" ht="15" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3078,7 +3078,7 @@
       <c r="S57" s="6"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" ht="15" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3100,7 +3100,7 @@
       <c r="S58" s="6"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" ht="15" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3122,7 +3122,7 @@
       <c r="S59" s="6"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" ht="15" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3144,7 +3144,7 @@
       <c r="S60" s="6"/>
       <c r="T60" s="5"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" ht="15" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3166,7 +3166,7 @@
       <c r="S61" s="6"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" ht="15" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3188,7 +3188,7 @@
       <c r="S62" s="6"/>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" ht="15" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3210,7 +3210,7 @@
       <c r="S63" s="6"/>
       <c r="T63" s="5"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" ht="15" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3232,7 +3232,7 @@
       <c r="S64" s="6"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" ht="15" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3254,7 +3254,7 @@
       <c r="S65" s="6"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" ht="15" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3276,7 +3276,7 @@
       <c r="S66" s="6"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" ht="15" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3298,7 +3298,7 @@
       <c r="S67" s="6"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" ht="15" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3320,7 +3320,7 @@
       <c r="S68" s="6"/>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" ht="15" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3342,7 +3342,7 @@
       <c r="S69" s="6"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" ht="15" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3364,7 +3364,7 @@
       <c r="S70" s="6"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" ht="15" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3386,7 +3386,7 @@
       <c r="S71" s="6"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" ht="15" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3408,7 +3408,7 @@
       <c r="S72" s="6"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" ht="15" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3430,7 +3430,7 @@
       <c r="S73" s="6"/>
       <c r="T73" s="5"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" ht="15" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3452,7 +3452,7 @@
       <c r="S74" s="6"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" ht="15" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3474,7 +3474,7 @@
       <c r="S75" s="6"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" ht="15" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3496,7 +3496,7 @@
       <c r="S76" s="6"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" ht="15" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3518,7 +3518,7 @@
       <c r="S77" s="6"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" ht="15" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3540,7 +3540,7 @@
       <c r="S78" s="6"/>
       <c r="T78" s="5"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" ht="15" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3562,7 +3562,7 @@
       <c r="S79" s="6"/>
       <c r="T79" s="5"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" ht="15" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3584,7 +3584,7 @@
       <c r="S80" s="6"/>
       <c r="T80" s="5"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" ht="15" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3606,7 +3606,7 @@
       <c r="S81" s="6"/>
       <c r="T81" s="5"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" ht="15" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3628,7 +3628,7 @@
       <c r="S82" s="6"/>
       <c r="T82" s="5"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" ht="15" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3650,7 +3650,7 @@
       <c r="S83" s="6"/>
       <c r="T83" s="5"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" ht="15" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3672,7 +3672,7 @@
       <c r="S84" s="6"/>
       <c r="T84" s="5"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" ht="15" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3694,7 +3694,7 @@
       <c r="S85" s="6"/>
       <c r="T85" s="5"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" ht="15" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3716,7 +3716,7 @@
       <c r="S86" s="6"/>
       <c r="T86" s="5"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" ht="15" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3738,7 +3738,7 @@
       <c r="S87" s="6"/>
       <c r="T87" s="5"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" ht="15" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3760,7 +3760,7 @@
       <c r="S88" s="6"/>
       <c r="T88" s="5"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" ht="15" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3782,7 +3782,7 @@
       <c r="S89" s="6"/>
       <c r="T89" s="5"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" ht="15" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3804,7 +3804,7 @@
       <c r="S90" s="6"/>
       <c r="T90" s="5"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" ht="15" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3826,7 +3826,7 @@
       <c r="S91" s="6"/>
       <c r="T91" s="5"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" ht="15" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3848,7 +3848,7 @@
       <c r="S92" s="6"/>
       <c r="T92" s="5"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" ht="15" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3870,7 +3870,7 @@
       <c r="S93" s="6"/>
       <c r="T93" s="5"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" ht="15" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3892,7 +3892,7 @@
       <c r="S94" s="6"/>
       <c r="T94" s="5"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" ht="15" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3914,7 +3914,7 @@
       <c r="S95" s="6"/>
       <c r="T95" s="5"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" ht="15" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3936,7 +3936,7 @@
       <c r="S96" s="6"/>
       <c r="T96" s="5"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" ht="15" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3958,7 +3958,7 @@
       <c r="S97" s="6"/>
       <c r="T97" s="5"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" ht="15" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3980,7 +3980,7 @@
       <c r="S98" s="6"/>
       <c r="T98" s="5"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" ht="15" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4002,7 +4002,7 @@
       <c r="S99" s="6"/>
       <c r="T99" s="5"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" ht="15" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4024,7 +4024,7 @@
       <c r="S100" s="6"/>
       <c r="T100" s="5"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" ht="15" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4046,7 +4046,7 @@
       <c r="S101" s="6"/>
       <c r="T101" s="5"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" ht="15" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4068,7 +4068,7 @@
       <c r="S102" s="6"/>
       <c r="T102" s="5"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" ht="15" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4090,7 +4090,7 @@
       <c r="S103" s="6"/>
       <c r="T103" s="5"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" ht="15" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4112,7 +4112,7 @@
       <c r="S104" s="6"/>
       <c r="T104" s="5"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" ht="15" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4134,7 +4134,7 @@
       <c r="S105" s="6"/>
       <c r="T105" s="5"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" ht="15" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4156,7 +4156,7 @@
       <c r="S106" s="6"/>
       <c r="T106" s="5"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" ht="15" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4178,7 +4178,7 @@
       <c r="S107" s="6"/>
       <c r="T107" s="5"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" ht="15" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4200,7 +4200,7 @@
       <c r="S108" s="6"/>
       <c r="T108" s="5"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" ht="15" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4222,7 +4222,7 @@
       <c r="S109" s="6"/>
       <c r="T109" s="5"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" ht="15" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4244,7 +4244,7 @@
       <c r="S110" s="6"/>
       <c r="T110" s="5"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" ht="15" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4266,7 +4266,7 @@
       <c r="S111" s="6"/>
       <c r="T111" s="5"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" ht="15" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4288,7 +4288,7 @@
       <c r="S112" s="6"/>
       <c r="T112" s="5"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" ht="15" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4310,7 +4310,7 @@
       <c r="S113" s="6"/>
       <c r="T113" s="5"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" ht="15" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4332,7 +4332,7 @@
       <c r="S114" s="6"/>
       <c r="T114" s="5"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" ht="15" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4354,7 +4354,7 @@
       <c r="S115" s="6"/>
       <c r="T115" s="5"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" ht="15" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4376,7 +4376,7 @@
       <c r="S116" s="6"/>
       <c r="T116" s="5"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" ht="15" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4398,7 +4398,7 @@
       <c r="S117" s="6"/>
       <c r="T117" s="5"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" ht="15" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4420,7 +4420,7 @@
       <c r="S118" s="6"/>
       <c r="T118" s="5"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" ht="15" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4442,7 +4442,7 @@
       <c r="S119" s="6"/>
       <c r="T119" s="5"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" ht="15" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4464,7 +4464,7 @@
       <c r="S120" s="6"/>
       <c r="T120" s="5"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" ht="15" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4486,7 +4486,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="5"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" ht="15" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4508,7 +4508,7 @@
       <c r="S122" s="6"/>
       <c r="T122" s="5"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" ht="15" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4530,7 +4530,7 @@
       <c r="S123" s="6"/>
       <c r="T123" s="5"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" ht="15" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4552,7 +4552,7 @@
       <c r="S124" s="6"/>
       <c r="T124" s="5"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" ht="15" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4574,7 +4574,7 @@
       <c r="S125" s="6"/>
       <c r="T125" s="5"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" ht="15" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4596,7 +4596,7 @@
       <c r="S126" s="6"/>
       <c r="T126" s="5"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" ht="15" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4618,7 +4618,7 @@
       <c r="S127" s="6"/>
       <c r="T127" s="5"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" ht="15" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4640,7 +4640,7 @@
       <c r="S128" s="6"/>
       <c r="T128" s="5"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" ht="15" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4662,7 +4662,7 @@
       <c r="S129" s="6"/>
       <c r="T129" s="5"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" ht="15" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4684,7 +4684,7 @@
       <c r="S130" s="6"/>
       <c r="T130" s="5"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" ht="15" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4706,7 +4706,7 @@
       <c r="S131" s="6"/>
       <c r="T131" s="5"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" ht="15" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4728,7 +4728,7 @@
       <c r="S132" s="6"/>
       <c r="T132" s="5"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" ht="15" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4750,7 +4750,7 @@
       <c r="S133" s="6"/>
       <c r="T133" s="5"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" ht="15" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4772,7 +4772,7 @@
       <c r="S134" s="6"/>
       <c r="T134" s="5"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" ht="15" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4794,7 +4794,7 @@
       <c r="S135" s="6"/>
       <c r="T135" s="5"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" ht="15" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4816,7 +4816,7 @@
       <c r="S136" s="6"/>
       <c r="T136" s="5"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" ht="15" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4838,7 +4838,7 @@
       <c r="S137" s="6"/>
       <c r="T137" s="5"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" ht="15" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4860,7 +4860,7 @@
       <c r="S138" s="6"/>
       <c r="T138" s="5"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" ht="15" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4882,7 +4882,7 @@
       <c r="S139" s="6"/>
       <c r="T139" s="5"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" ht="15" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4904,7 +4904,7 @@
       <c r="S140" s="6"/>
       <c r="T140" s="5"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" ht="15" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4926,7 +4926,7 @@
       <c r="S141" s="6"/>
       <c r="T141" s="5"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" ht="15" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4948,7 +4948,7 @@
       <c r="S142" s="6"/>
       <c r="T142" s="5"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" ht="15" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4970,7 +4970,7 @@
       <c r="S143" s="6"/>
       <c r="T143" s="5"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" ht="15" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4992,7 +4992,7 @@
       <c r="S144" s="6"/>
       <c r="T144" s="5"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" ht="15" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5014,7 +5014,7 @@
       <c r="S145" s="6"/>
       <c r="T145" s="5"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" ht="15" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -5036,7 +5036,7 @@
       <c r="S146" s="6"/>
       <c r="T146" s="5"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" ht="15" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5058,7 +5058,7 @@
       <c r="S147" s="6"/>
       <c r="T147" s="5"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" ht="15" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5080,7 +5080,7 @@
       <c r="S148" s="6"/>
       <c r="T148" s="5"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" ht="15" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -5102,7 +5102,7 @@
       <c r="S149" s="6"/>
       <c r="T149" s="5"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" ht="15" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5124,7 +5124,7 @@
       <c r="S150" s="6"/>
       <c r="T150" s="5"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" ht="15" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5146,7 +5146,7 @@
       <c r="S151" s="6"/>
       <c r="T151" s="5"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" ht="15" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5168,7 +5168,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="5"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" ht="15" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5190,7 +5190,7 @@
       <c r="S153" s="6"/>
       <c r="T153" s="5"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" ht="15" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5212,7 +5212,7 @@
       <c r="S154" s="6"/>
       <c r="T154" s="5"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" ht="15" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5234,7 +5234,7 @@
       <c r="S155" s="6"/>
       <c r="T155" s="5"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" ht="15" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5256,7 +5256,7 @@
       <c r="S156" s="6"/>
       <c r="T156" s="5"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" ht="15" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5278,7 +5278,7 @@
       <c r="S157" s="6"/>
       <c r="T157" s="5"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" ht="15" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5300,7 +5300,7 @@
       <c r="S158" s="6"/>
       <c r="T158" s="5"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" ht="15" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5322,7 +5322,7 @@
       <c r="S159" s="6"/>
       <c r="T159" s="5"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" ht="15" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5344,7 +5344,7 @@
       <c r="S160" s="6"/>
       <c r="T160" s="5"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" ht="15" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5366,7 +5366,7 @@
       <c r="S161" s="6"/>
       <c r="T161" s="5"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" ht="15" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5388,7 +5388,7 @@
       <c r="S162" s="6"/>
       <c r="T162" s="5"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" ht="15" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5410,7 +5410,7 @@
       <c r="S163" s="6"/>
       <c r="T163" s="5"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" ht="15" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5432,7 +5432,7 @@
       <c r="S164" s="6"/>
       <c r="T164" s="5"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" ht="15" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5454,7 +5454,7 @@
       <c r="S165" s="6"/>
       <c r="T165" s="5"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" ht="15" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5476,7 +5476,7 @@
       <c r="S166" s="6"/>
       <c r="T166" s="5"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" ht="15" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5498,7 +5498,7 @@
       <c r="S167" s="6"/>
       <c r="T167" s="5"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" ht="15" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5520,7 +5520,7 @@
       <c r="S168" s="6"/>
       <c r="T168" s="5"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" ht="15" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5542,7 +5542,7 @@
       <c r="S169" s="6"/>
       <c r="T169" s="5"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" ht="15" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5564,7 +5564,7 @@
       <c r="S170" s="6"/>
       <c r="T170" s="5"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5586,7 +5586,7 @@
       <c r="S171" s="6"/>
       <c r="T171" s="5"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" ht="15" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5608,7 +5608,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="5"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" ht="15" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5630,7 +5630,7 @@
       <c r="S173" s="6"/>
       <c r="T173" s="5"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" ht="15" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5652,7 +5652,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="5"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" ht="15" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5674,7 +5674,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="5"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" ht="15" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5696,7 +5696,7 @@
       <c r="S176" s="6"/>
       <c r="T176" s="5"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" ht="15" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5718,7 +5718,7 @@
       <c r="S177" s="6"/>
       <c r="T177" s="5"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" ht="15" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5740,7 +5740,7 @@
       <c r="S178" s="6"/>
       <c r="T178" s="5"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" ht="15" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5762,7 +5762,7 @@
       <c r="S179" s="6"/>
       <c r="T179" s="5"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" ht="15" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5784,7 +5784,7 @@
       <c r="S180" s="6"/>
       <c r="T180" s="5"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" ht="15" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5806,7 +5806,7 @@
       <c r="S181" s="6"/>
       <c r="T181" s="5"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" ht="15" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5828,7 +5828,7 @@
       <c r="S182" s="6"/>
       <c r="T182" s="5"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" ht="15" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5850,7 +5850,7 @@
       <c r="S183" s="6"/>
       <c r="T183" s="5"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" ht="15" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5872,7 +5872,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="5"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" ht="15" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5894,7 +5894,7 @@
       <c r="S185" s="6"/>
       <c r="T185" s="5"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" ht="15" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5916,7 +5916,7 @@
       <c r="S186" s="6"/>
       <c r="T186" s="5"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" ht="15" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5938,7 +5938,7 @@
       <c r="S187" s="6"/>
       <c r="T187" s="5"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" ht="15" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5960,7 +5960,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="5"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" ht="15" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5982,7 +5982,7 @@
       <c r="S189" s="6"/>
       <c r="T189" s="5"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" ht="15" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -6004,7 +6004,7 @@
       <c r="S190" s="6"/>
       <c r="T190" s="5"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" ht="15" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -6026,7 +6026,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="5"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" ht="15" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -6048,7 +6048,7 @@
       <c r="S192" s="6"/>
       <c r="T192" s="5"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" ht="15" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -6070,7 +6070,7 @@
       <c r="S193" s="6"/>
       <c r="T193" s="5"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" ht="15" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -6092,7 +6092,7 @@
       <c r="S194" s="6"/>
       <c r="T194" s="5"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" ht="15" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -6114,7 +6114,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="5"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" ht="15" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -6136,7 +6136,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="5"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" ht="15" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -6158,7 +6158,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="5"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" ht="15" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -6180,7 +6180,7 @@
       <c r="S198" s="6"/>
       <c r="T198" s="5"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" ht="15" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -6202,7 +6202,7 @@
       <c r="S199" s="6"/>
       <c r="T199" s="5"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" ht="15" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -6224,7 +6224,7 @@
       <c r="S200" s="6"/>
       <c r="T200" s="5"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" ht="15" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -6246,7 +6246,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="5"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" ht="15" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -6268,7 +6268,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="5"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" ht="15" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6290,7 +6290,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="5"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" ht="15" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -6312,7 +6312,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="5"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" ht="15" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -6334,7 +6334,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="5"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" ht="15" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6356,7 +6356,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="5"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" ht="15" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6378,7 +6378,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="5"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" ht="15" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6400,7 +6400,7 @@
       <c r="S208" s="6"/>
       <c r="T208" s="5"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" ht="15" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6422,7 +6422,7 @@
       <c r="S209" s="6"/>
       <c r="T209" s="5"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" ht="15" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6444,7 +6444,7 @@
       <c r="S210" s="6"/>
       <c r="T210" s="5"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" ht="15" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6466,7 +6466,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="5"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" ht="15" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6488,7 +6488,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="5"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" ht="15" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6510,7 +6510,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="5"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" ht="15" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6532,7 +6532,7 @@
       <c r="S214" s="6"/>
       <c r="T214" s="5"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" ht="15" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6554,7 +6554,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="5"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" ht="15" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6576,7 +6576,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="5"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" ht="15" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6598,7 +6598,7 @@
       <c r="S217" s="6"/>
       <c r="T217" s="5"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" ht="15" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6620,7 +6620,7 @@
       <c r="S218" s="6"/>
       <c r="T218" s="5"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" ht="15" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6642,7 +6642,7 @@
       <c r="S219" s="6"/>
       <c r="T219" s="5"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" ht="15" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6664,7 +6664,7 @@
       <c r="S220" s="6"/>
       <c r="T220" s="5"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" ht="15" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6686,7 +6686,7 @@
       <c r="S221" s="6"/>
       <c r="T221" s="5"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" ht="15" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6708,7 +6708,7 @@
       <c r="S222" s="6"/>
       <c r="T222" s="5"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" ht="15" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6730,7 +6730,7 @@
       <c r="S223" s="6"/>
       <c r="T223" s="5"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" ht="15" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6752,7 +6752,7 @@
       <c r="S224" s="6"/>
       <c r="T224" s="5"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" ht="15" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6774,7 +6774,7 @@
       <c r="S225" s="6"/>
       <c r="T225" s="5"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" ht="15" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6796,7 +6796,7 @@
       <c r="S226" s="6"/>
       <c r="T226" s="5"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" ht="15" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6818,7 +6818,7 @@
       <c r="S227" s="6"/>
       <c r="T227" s="5"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" ht="15" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6840,7 +6840,7 @@
       <c r="S228" s="6"/>
       <c r="T228" s="5"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" ht="15" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6862,7 +6862,7 @@
       <c r="S229" s="6"/>
       <c r="T229" s="5"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" ht="15" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6884,7 +6884,7 @@
       <c r="S230" s="6"/>
       <c r="T230" s="5"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" ht="15" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6906,7 +6906,7 @@
       <c r="S231" s="6"/>
       <c r="T231" s="5"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6928,7 +6928,7 @@
       <c r="S232" s="6"/>
       <c r="T232" s="5"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" ht="15" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6950,7 +6950,7 @@
       <c r="S233" s="6"/>
       <c r="T233" s="5"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" ht="15" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6972,7 +6972,7 @@
       <c r="S234" s="6"/>
       <c r="T234" s="5"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" ht="15" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6994,7 +6994,7 @@
       <c r="S235" s="6"/>
       <c r="T235" s="5"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" ht="15" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -7016,7 +7016,7 @@
       <c r="S236" s="6"/>
       <c r="T236" s="5"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" ht="15" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -7038,7 +7038,7 @@
       <c r="S237" s="6"/>
       <c r="T237" s="5"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" ht="15" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -7060,7 +7060,7 @@
       <c r="S238" s="6"/>
       <c r="T238" s="5"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" ht="15" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -7082,7 +7082,7 @@
       <c r="S239" s="6"/>
       <c r="T239" s="5"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" ht="15" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -7104,7 +7104,7 @@
       <c r="S240" s="6"/>
       <c r="T240" s="5"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" ht="15" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -7126,7 +7126,7 @@
       <c r="S241" s="6"/>
       <c r="T241" s="5"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" ht="15" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -7148,7 +7148,7 @@
       <c r="S242" s="6"/>
       <c r="T242" s="5"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" ht="15" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -7170,7 +7170,7 @@
       <c r="S243" s="6"/>
       <c r="T243" s="5"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" ht="15" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -7192,7 +7192,7 @@
       <c r="S244" s="6"/>
       <c r="T244" s="5"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" ht="15" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -7214,7 +7214,7 @@
       <c r="S245" s="6"/>
       <c r="T245" s="5"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" ht="15" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -7236,7 +7236,7 @@
       <c r="S246" s="6"/>
       <c r="T246" s="5"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" ht="15" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -7258,7 +7258,7 @@
       <c r="S247" s="6"/>
       <c r="T247" s="5"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" ht="15" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7280,7 +7280,7 @@
       <c r="S248" s="6"/>
       <c r="T248" s="5"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" ht="15" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7302,7 +7302,7 @@
       <c r="S249" s="6"/>
       <c r="T249" s="5"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" ht="15" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7324,7 +7324,7 @@
       <c r="S250" s="6"/>
       <c r="T250" s="5"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" ht="15" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7346,7 +7346,7 @@
       <c r="S251" s="6"/>
       <c r="T251" s="5"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" ht="15" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7368,7 +7368,7 @@
       <c r="S252" s="6"/>
       <c r="T252" s="5"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" ht="15" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7390,7 +7390,7 @@
       <c r="S253" s="6"/>
       <c r="T253" s="5"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" ht="15" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7412,7 +7412,7 @@
       <c r="S254" s="6"/>
       <c r="T254" s="5"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" ht="15" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7434,7 +7434,7 @@
       <c r="S255" s="6"/>
       <c r="T255" s="5"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" ht="15" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7456,7 +7456,7 @@
       <c r="S256" s="6"/>
       <c r="T256" s="5"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" ht="15" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7478,7 +7478,7 @@
       <c r="S257" s="6"/>
       <c r="T257" s="5"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" ht="15" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7500,7 +7500,7 @@
       <c r="S258" s="6"/>
       <c r="T258" s="5"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" ht="15" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7522,7 +7522,7 @@
       <c r="S259" s="6"/>
       <c r="T259" s="5"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" ht="15" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7544,7 +7544,7 @@
       <c r="S260" s="6"/>
       <c r="T260" s="5"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" ht="15" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7566,7 +7566,7 @@
       <c r="S261" s="6"/>
       <c r="T261" s="5"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" ht="15" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7588,7 +7588,7 @@
       <c r="S262" s="6"/>
       <c r="T262" s="5"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" ht="15" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7610,7 +7610,7 @@
       <c r="S263" s="6"/>
       <c r="T263" s="5"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" ht="15" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7632,7 +7632,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="5"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" ht="15" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7654,7 +7654,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="5"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" ht="15" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7676,7 +7676,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="5"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" ht="15" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7698,7 +7698,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="5"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" ht="15" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7720,7 +7720,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="5"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" ht="15" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7742,7 +7742,7 @@
       <c r="S269" s="6"/>
       <c r="T269" s="5"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" ht="15" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7764,7 +7764,7 @@
       <c r="S270" s="6"/>
       <c r="T270" s="5"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" ht="15" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7786,7 +7786,7 @@
       <c r="S271" s="6"/>
       <c r="T271" s="5"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" ht="15" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7808,7 +7808,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="5"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" ht="15" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7830,7 +7830,7 @@
       <c r="S273" s="6"/>
       <c r="T273" s="5"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" ht="15" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7852,7 +7852,7 @@
       <c r="S274" s="6"/>
       <c r="T274" s="5"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" ht="15" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7874,7 +7874,7 @@
       <c r="S275" s="6"/>
       <c r="T275" s="5"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" ht="15" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -7896,7 +7896,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="5"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" ht="15" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7918,7 +7918,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="5"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" ht="15" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -7940,7 +7940,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="5"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" ht="15" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -7962,7 +7962,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="5"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" ht="15" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -7984,7 +7984,7 @@
       <c r="S280" s="6"/>
       <c r="T280" s="5"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" ht="15" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -8006,7 +8006,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="5"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" ht="15" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -8028,7 +8028,7 @@
       <c r="S282" s="6"/>
       <c r="T282" s="5"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" ht="15" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -8050,7 +8050,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="5"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" ht="15" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -8072,7 +8072,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="5"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" ht="15" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -8094,7 +8094,7 @@
       <c r="S285" s="6"/>
       <c r="T285" s="5"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" ht="15" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -8116,7 +8116,7 @@
       <c r="S286" s="6"/>
       <c r="T286" s="5"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" ht="15" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -8138,7 +8138,7 @@
       <c r="S287" s="6"/>
       <c r="T287" s="5"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" ht="15" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -8160,7 +8160,7 @@
       <c r="S288" s="6"/>
       <c r="T288" s="5"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" ht="15" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -8182,7 +8182,7 @@
       <c r="S289" s="6"/>
       <c r="T289" s="5"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" ht="15" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8204,7 +8204,7 @@
       <c r="S290" s="6"/>
       <c r="T290" s="5"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" ht="15" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8226,7 +8226,7 @@
       <c r="S291" s="6"/>
       <c r="T291" s="5"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" ht="15" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8248,7 +8248,7 @@
       <c r="S292" s="6"/>
       <c r="T292" s="5"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" ht="15" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8270,7 +8270,7 @@
       <c r="S293" s="6"/>
       <c r="T293" s="5"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" ht="15" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8292,7 +8292,7 @@
       <c r="S294" s="6"/>
       <c r="T294" s="5"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" ht="15" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8314,7 +8314,7 @@
       <c r="S295" s="6"/>
       <c r="T295" s="5"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" ht="15" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8336,7 +8336,7 @@
       <c r="S296" s="6"/>
       <c r="T296" s="5"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" ht="15" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8358,7 +8358,7 @@
       <c r="S297" s="6"/>
       <c r="T297" s="5"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" ht="15" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -8380,7 +8380,7 @@
       <c r="S298" s="6"/>
       <c r="T298" s="5"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" ht="15" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8402,7 +8402,7 @@
       <c r="S299" s="6"/>
       <c r="T299" s="5"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" ht="15" customHeight="1">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8424,7 +8424,7 @@
       <c r="S300" s="6"/>
       <c r="T300" s="5"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" ht="15" customHeight="1">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8446,7 +8446,7 @@
       <c r="S301" s="6"/>
       <c r="T301" s="5"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" ht="15" customHeight="1">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8468,7 +8468,7 @@
       <c r="S302" s="6"/>
       <c r="T302" s="5"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" ht="15" customHeight="1">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -8490,7 +8490,7 @@
       <c r="S303" s="6"/>
       <c r="T303" s="5"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" ht="15" customHeight="1">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8512,7 +8512,7 @@
       <c r="S304" s="6"/>
       <c r="T304" s="5"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" ht="15" customHeight="1">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8534,7 +8534,7 @@
       <c r="S305" s="6"/>
       <c r="T305" s="5"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" ht="15" customHeight="1">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8556,7 +8556,7 @@
       <c r="S306" s="6"/>
       <c r="T306" s="5"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" ht="15" customHeight="1">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8578,7 +8578,7 @@
       <c r="S307" s="6"/>
       <c r="T307" s="5"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" ht="15" customHeight="1">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8600,7 +8600,7 @@
       <c r="S308" s="6"/>
       <c r="T308" s="5"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" ht="15" customHeight="1">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8622,7 +8622,7 @@
       <c r="S309" s="6"/>
       <c r="T309" s="5"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" ht="15" customHeight="1">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8644,7 +8644,7 @@
       <c r="S310" s="6"/>
       <c r="T310" s="5"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" ht="15" customHeight="1">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8666,7 +8666,7 @@
       <c r="S311" s="6"/>
       <c r="T311" s="5"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" ht="15" customHeight="1">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8688,7 +8688,7 @@
       <c r="S312" s="6"/>
       <c r="T312" s="5"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" ht="15" customHeight="1">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8710,7 +8710,7 @@
       <c r="S313" s="6"/>
       <c r="T313" s="5"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" ht="15" customHeight="1">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8732,7 +8732,7 @@
       <c r="S314" s="6"/>
       <c r="T314" s="5"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" ht="15" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8754,7 +8754,7 @@
       <c r="S315" s="6"/>
       <c r="T315" s="5"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" ht="15" customHeight="1">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8776,7 +8776,7 @@
       <c r="S316" s="6"/>
       <c r="T316" s="5"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" ht="15" customHeight="1">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8798,7 +8798,7 @@
       <c r="S317" s="6"/>
       <c r="T317" s="5"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" ht="15" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8820,7 +8820,7 @@
       <c r="S318" s="6"/>
       <c r="T318" s="5"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" ht="15" customHeight="1">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8842,7 +8842,7 @@
       <c r="S319" s="6"/>
       <c r="T319" s="5"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" ht="15" customHeight="1">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -8864,7 +8864,7 @@
       <c r="S320" s="6"/>
       <c r="T320" s="5"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" ht="15" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -8886,7 +8886,7 @@
       <c r="S321" s="6"/>
       <c r="T321" s="5"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" ht="15" customHeight="1">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -8908,7 +8908,7 @@
       <c r="S322" s="6"/>
       <c r="T322" s="5"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" ht="15" customHeight="1">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -8930,7 +8930,7 @@
       <c r="S323" s="6"/>
       <c r="T323" s="5"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" ht="15" customHeight="1">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -8952,7 +8952,7 @@
       <c r="S324" s="6"/>
       <c r="T324" s="5"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" ht="15" customHeight="1">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -8974,7 +8974,7 @@
       <c r="S325" s="6"/>
       <c r="T325" s="5"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" ht="15" customHeight="1">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -8996,7 +8996,7 @@
       <c r="S326" s="6"/>
       <c r="T326" s="5"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" ht="15" customHeight="1">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -9018,7 +9018,7 @@
       <c r="S327" s="6"/>
       <c r="T327" s="5"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" ht="15" customHeight="1">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -9040,7 +9040,7 @@
       <c r="S328" s="6"/>
       <c r="T328" s="5"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" ht="15" customHeight="1">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -9062,7 +9062,7 @@
       <c r="S329" s="6"/>
       <c r="T329" s="5"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" ht="15" customHeight="1">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -9084,7 +9084,7 @@
       <c r="S330" s="6"/>
       <c r="T330" s="5"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" ht="15" customHeight="1">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -9106,7 +9106,7 @@
       <c r="S331" s="6"/>
       <c r="T331" s="5"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" ht="15" customHeight="1">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -9128,7 +9128,7 @@
       <c r="S332" s="6"/>
       <c r="T332" s="5"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" ht="15" customHeight="1">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -9150,7 +9150,7 @@
       <c r="S333" s="6"/>
       <c r="T333" s="5"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" ht="15" customHeight="1">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -9172,7 +9172,7 @@
       <c r="S334" s="6"/>
       <c r="T334" s="5"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" ht="15" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9194,7 +9194,7 @@
       <c r="S335" s="6"/>
       <c r="T335" s="5"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" ht="15" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9216,7 +9216,7 @@
       <c r="S336" s="6"/>
       <c r="T336" s="5"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" ht="15" customHeight="1">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9238,7 +9238,7 @@
       <c r="S337" s="6"/>
       <c r="T337" s="5"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" ht="15" customHeight="1">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9260,7 +9260,7 @@
       <c r="S338" s="6"/>
       <c r="T338" s="5"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" ht="15" customHeight="1">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -9282,7 +9282,7 @@
       <c r="S339" s="6"/>
       <c r="T339" s="5"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" ht="15" customHeight="1">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9304,7 +9304,7 @@
       <c r="S340" s="6"/>
       <c r="T340" s="5"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" ht="15" customHeight="1">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9326,7 +9326,7 @@
       <c r="S341" s="6"/>
       <c r="T341" s="5"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" ht="15" customHeight="1">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9348,7 +9348,7 @@
       <c r="S342" s="6"/>
       <c r="T342" s="5"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" ht="15" customHeight="1">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9370,7 +9370,7 @@
       <c r="S343" s="6"/>
       <c r="T343" s="5"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" ht="15" customHeight="1">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9392,7 +9392,7 @@
       <c r="S344" s="6"/>
       <c r="T344" s="5"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" ht="15" customHeight="1">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9414,7 +9414,7 @@
       <c r="S345" s="6"/>
       <c r="T345" s="5"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" ht="15" customHeight="1">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9436,7 +9436,7 @@
       <c r="S346" s="6"/>
       <c r="T346" s="5"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" ht="15" customHeight="1">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -9458,7 +9458,7 @@
       <c r="S347" s="6"/>
       <c r="T347" s="5"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" ht="15" customHeight="1">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9480,7 +9480,7 @@
       <c r="S348" s="6"/>
       <c r="T348" s="5"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" ht="15" customHeight="1">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9502,7 +9502,7 @@
       <c r="S349" s="6"/>
       <c r="T349" s="5"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" ht="15" customHeight="1">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9524,7 +9524,7 @@
       <c r="S350" s="6"/>
       <c r="T350" s="5"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" ht="15" customHeight="1">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9546,7 +9546,7 @@
       <c r="S351" s="6"/>
       <c r="T351" s="5"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" ht="15" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9568,7 +9568,7 @@
       <c r="S352" s="6"/>
       <c r="T352" s="5"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" ht="15" customHeight="1">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9590,7 +9590,7 @@
       <c r="S353" s="6"/>
       <c r="T353" s="5"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" ht="15" customHeight="1">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9612,7 +9612,7 @@
       <c r="S354" s="6"/>
       <c r="T354" s="5"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" ht="15" customHeight="1">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9634,7 +9634,7 @@
       <c r="S355" s="6"/>
       <c r="T355" s="5"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" ht="15" customHeight="1">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9656,7 +9656,7 @@
       <c r="S356" s="6"/>
       <c r="T356" s="5"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" ht="15" customHeight="1">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9678,7 +9678,7 @@
       <c r="S357" s="6"/>
       <c r="T357" s="5"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" ht="15" customHeight="1">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9700,7 +9700,7 @@
       <c r="S358" s="6"/>
       <c r="T358" s="5"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" ht="15" customHeight="1">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9722,7 +9722,7 @@
       <c r="S359" s="6"/>
       <c r="T359" s="5"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" ht="15" customHeight="1">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -9744,7 +9744,7 @@
       <c r="S360" s="6"/>
       <c r="T360" s="5"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" ht="15" customHeight="1">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -9766,7 +9766,7 @@
       <c r="S361" s="6"/>
       <c r="T361" s="5"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" ht="15" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -9788,7 +9788,7 @@
       <c r="S362" s="6"/>
       <c r="T362" s="5"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" ht="15" customHeight="1">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -9810,7 +9810,7 @@
       <c r="S363" s="6"/>
       <c r="T363" s="5"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" ht="15" customHeight="1">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -9832,7 +9832,7 @@
       <c r="S364" s="6"/>
       <c r="T364" s="5"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" ht="15" customHeight="1">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -9854,7 +9854,7 @@
       <c r="S365" s="6"/>
       <c r="T365" s="5"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" ht="15" customHeight="1">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -9876,7 +9876,7 @@
       <c r="S366" s="6"/>
       <c r="T366" s="5"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" ht="15" customHeight="1">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -9898,7 +9898,7 @@
       <c r="S367" s="6"/>
       <c r="T367" s="5"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" ht="15" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -9920,7 +9920,7 @@
       <c r="S368" s="6"/>
       <c r="T368" s="5"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" ht="15" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -9942,7 +9942,7 @@
       <c r="S369" s="6"/>
       <c r="T369" s="5"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" ht="15" customHeight="1">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -9964,7 +9964,7 @@
       <c r="S370" s="6"/>
       <c r="T370" s="5"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" ht="15" customHeight="1">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -9986,7 +9986,7 @@
       <c r="S371" s="6"/>
       <c r="T371" s="5"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" ht="15" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -10008,7 +10008,7 @@
       <c r="S372" s="6"/>
       <c r="T372" s="5"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" ht="15" customHeight="1">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -10030,7 +10030,7 @@
       <c r="S373" s="6"/>
       <c r="T373" s="5"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" ht="15" customHeight="1">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -10052,7 +10052,7 @@
       <c r="S374" s="6"/>
       <c r="T374" s="5"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" ht="15" customHeight="1">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -10074,7 +10074,7 @@
       <c r="S375" s="6"/>
       <c r="T375" s="5"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" ht="15" customHeight="1">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -10096,7 +10096,7 @@
       <c r="S376" s="6"/>
       <c r="T376" s="5"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" ht="15" customHeight="1">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -10118,7 +10118,7 @@
       <c r="S377" s="6"/>
       <c r="T377" s="5"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" ht="15" customHeight="1">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10140,7 +10140,7 @@
       <c r="S378" s="6"/>
       <c r="T378" s="5"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" ht="15" customHeight="1">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10162,7 +10162,7 @@
       <c r="S379" s="6"/>
       <c r="T379" s="5"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" ht="15" customHeight="1">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10184,7 +10184,7 @@
       <c r="S380" s="6"/>
       <c r="T380" s="5"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" ht="15" customHeight="1">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10206,7 +10206,7 @@
       <c r="S381" s="6"/>
       <c r="T381" s="5"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" ht="15" customHeight="1">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10228,7 +10228,7 @@
       <c r="S382" s="6"/>
       <c r="T382" s="5"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" ht="15" customHeight="1">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10250,7 +10250,7 @@
       <c r="S383" s="6"/>
       <c r="T383" s="5"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" ht="15" customHeight="1">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10272,7 +10272,7 @@
       <c r="S384" s="6"/>
       <c r="T384" s="5"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" ht="15" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10294,7 +10294,7 @@
       <c r="S385" s="6"/>
       <c r="T385" s="5"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" ht="15" customHeight="1">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10316,7 +10316,7 @@
       <c r="S386" s="6"/>
       <c r="T386" s="5"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" ht="15" customHeight="1">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10338,7 +10338,7 @@
       <c r="S387" s="6"/>
       <c r="T387" s="5"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" ht="15" customHeight="1">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -10360,7 +10360,7 @@
       <c r="S388" s="6"/>
       <c r="T388" s="5"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" ht="15" customHeight="1">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10382,7 +10382,7 @@
       <c r="S389" s="6"/>
       <c r="T389" s="5"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" ht="15" customHeight="1">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10404,7 +10404,7 @@
       <c r="S390" s="6"/>
       <c r="T390" s="5"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" ht="15" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10426,7 +10426,7 @@
       <c r="S391" s="6"/>
       <c r="T391" s="5"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" ht="15" customHeight="1">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10448,7 +10448,7 @@
       <c r="S392" s="6"/>
       <c r="T392" s="5"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" ht="15" customHeight="1">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10470,7 +10470,7 @@
       <c r="S393" s="6"/>
       <c r="T393" s="5"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" ht="15" customHeight="1">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10492,7 +10492,7 @@
       <c r="S394" s="6"/>
       <c r="T394" s="5"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" ht="15" customHeight="1">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10514,7 +10514,7 @@
       <c r="S395" s="6"/>
       <c r="T395" s="5"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" ht="15" customHeight="1">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -10536,7 +10536,7 @@
       <c r="S396" s="6"/>
       <c r="T396" s="5"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" ht="15" customHeight="1">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10558,7 +10558,7 @@
       <c r="S397" s="6"/>
       <c r="T397" s="5"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" ht="15" customHeight="1">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -10580,7 +10580,7 @@
       <c r="S398" s="6"/>
       <c r="T398" s="5"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" ht="15" customHeight="1">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -10602,7 +10602,7 @@
       <c r="S399" s="6"/>
       <c r="T399" s="5"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" ht="15" customHeight="1">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10624,7 +10624,7 @@
       <c r="S400" s="6"/>
       <c r="T400" s="5"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" ht="15" customHeight="1">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -10646,7 +10646,7 @@
       <c r="S401" s="6"/>
       <c r="T401" s="5"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" ht="15" customHeight="1">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -10668,7 +10668,7 @@
       <c r="S402" s="6"/>
       <c r="T402" s="5"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" ht="15" customHeight="1">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -10690,7 +10690,7 @@
       <c r="S403" s="6"/>
       <c r="T403" s="5"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" ht="15" customHeight="1">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -10712,7 +10712,7 @@
       <c r="S404" s="6"/>
       <c r="T404" s="5"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" ht="15" customHeight="1">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -10734,7 +10734,7 @@
       <c r="S405" s="6"/>
       <c r="T405" s="5"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" ht="15" customHeight="1">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -10756,7 +10756,7 @@
       <c r="S406" s="6"/>
       <c r="T406" s="5"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" ht="15" customHeight="1">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -10778,7 +10778,7 @@
       <c r="S407" s="6"/>
       <c r="T407" s="5"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" ht="15" customHeight="1">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -10800,7 +10800,7 @@
       <c r="S408" s="6"/>
       <c r="T408" s="5"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" ht="15" customHeight="1">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -10822,7 +10822,7 @@
       <c r="S409" s="6"/>
       <c r="T409" s="5"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" ht="15" customHeight="1">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -10844,7 +10844,7 @@
       <c r="S410" s="6"/>
       <c r="T410" s="5"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" ht="15" customHeight="1">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -10866,7 +10866,7 @@
       <c r="S411" s="6"/>
       <c r="T411" s="5"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" ht="15" customHeight="1">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -10888,7 +10888,7 @@
       <c r="S412" s="6"/>
       <c r="T412" s="5"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" ht="15" customHeight="1">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -10910,7 +10910,7 @@
       <c r="S413" s="6"/>
       <c r="T413" s="5"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" ht="15" customHeight="1">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -10932,7 +10932,7 @@
       <c r="S414" s="6"/>
       <c r="T414" s="5"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" ht="15" customHeight="1">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -10954,7 +10954,7 @@
       <c r="S415" s="6"/>
       <c r="T415" s="5"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" ht="15" customHeight="1">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -10976,7 +10976,7 @@
       <c r="S416" s="6"/>
       <c r="T416" s="5"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" ht="15" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -10998,7 +10998,7 @@
       <c r="S417" s="6"/>
       <c r="T417" s="5"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" ht="15" customHeight="1">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -11020,7 +11020,7 @@
       <c r="S418" s="6"/>
       <c r="T418" s="5"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" ht="15" customHeight="1">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -11042,7 +11042,7 @@
       <c r="S419" s="6"/>
       <c r="T419" s="5"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" ht="15" customHeight="1">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -11064,7 +11064,7 @@
       <c r="S420" s="6"/>
       <c r="T420" s="5"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" ht="15" customHeight="1">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -11086,7 +11086,7 @@
       <c r="S421" s="6"/>
       <c r="T421" s="5"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" ht="15" customHeight="1">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11108,7 +11108,7 @@
       <c r="S422" s="6"/>
       <c r="T422" s="5"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" ht="15" customHeight="1">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11130,7 +11130,7 @@
       <c r="S423" s="6"/>
       <c r="T423" s="5"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" ht="15" customHeight="1">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11152,7 +11152,7 @@
       <c r="S424" s="6"/>
       <c r="T424" s="5"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" ht="15" customHeight="1">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11174,7 +11174,7 @@
       <c r="S425" s="6"/>
       <c r="T425" s="5"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" ht="15" customHeight="1">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11196,7 +11196,7 @@
       <c r="S426" s="6"/>
       <c r="T426" s="5"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" ht="15" customHeight="1">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11218,7 +11218,7 @@
       <c r="S427" s="6"/>
       <c r="T427" s="5"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" ht="15" customHeight="1">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11240,7 +11240,7 @@
       <c r="S428" s="6"/>
       <c r="T428" s="5"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" ht="15" customHeight="1">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -11262,7 +11262,7 @@
       <c r="S429" s="6"/>
       <c r="T429" s="5"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" ht="15" customHeight="1">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11284,7 +11284,7 @@
       <c r="S430" s="6"/>
       <c r="T430" s="5"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" ht="15" customHeight="1">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11306,7 +11306,7 @@
       <c r="S431" s="6"/>
       <c r="T431" s="5"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" ht="15" customHeight="1">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11328,7 +11328,7 @@
       <c r="S432" s="6"/>
       <c r="T432" s="5"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" ht="15" customHeight="1">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11350,7 +11350,7 @@
       <c r="S433" s="6"/>
       <c r="T433" s="5"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" ht="15" customHeight="1">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11372,7 +11372,7 @@
       <c r="S434" s="6"/>
       <c r="T434" s="5"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" ht="15" customHeight="1">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11394,7 +11394,7 @@
       <c r="S435" s="6"/>
       <c r="T435" s="5"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" ht="15" customHeight="1">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11416,7 +11416,7 @@
       <c r="S436" s="6"/>
       <c r="T436" s="5"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" ht="15" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -11438,7 +11438,7 @@
       <c r="S437" s="6"/>
       <c r="T437" s="5"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" ht="15" customHeight="1">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -11460,7 +11460,7 @@
       <c r="S438" s="6"/>
       <c r="T438" s="5"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" ht="15" customHeight="1">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -11482,7 +11482,7 @@
       <c r="S439" s="6"/>
       <c r="T439" s="5"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" ht="15" customHeight="1">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -11504,7 +11504,7 @@
       <c r="S440" s="6"/>
       <c r="T440" s="5"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" ht="15" customHeight="1">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -11526,7 +11526,7 @@
       <c r="S441" s="6"/>
       <c r="T441" s="5"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" ht="15" customHeight="1">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -11548,7 +11548,7 @@
       <c r="S442" s="6"/>
       <c r="T442" s="5"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" ht="15" customHeight="1">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -11570,7 +11570,7 @@
       <c r="S443" s="6"/>
       <c r="T443" s="5"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" ht="15" customHeight="1">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -11592,7 +11592,7 @@
       <c r="S444" s="6"/>
       <c r="T444" s="5"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" ht="15" customHeight="1">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -11614,7 +11614,7 @@
       <c r="S445" s="6"/>
       <c r="T445" s="5"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" ht="15" customHeight="1">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -11636,7 +11636,7 @@
       <c r="S446" s="6"/>
       <c r="T446" s="5"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" ht="15" customHeight="1">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -11658,7 +11658,7 @@
       <c r="S447" s="6"/>
       <c r="T447" s="5"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" ht="15" customHeight="1">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -11680,7 +11680,7 @@
       <c r="S448" s="6"/>
       <c r="T448" s="5"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" ht="15" customHeight="1">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -11702,7 +11702,7 @@
       <c r="S449" s="6"/>
       <c r="T449" s="5"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" ht="15" customHeight="1">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -11724,7 +11724,7 @@
       <c r="S450" s="6"/>
       <c r="T450" s="5"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" ht="15" customHeight="1">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -11746,7 +11746,7 @@
       <c r="S451" s="6"/>
       <c r="T451" s="5"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" ht="15" customHeight="1">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -11768,7 +11768,7 @@
       <c r="S452" s="6"/>
       <c r="T452" s="5"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" ht="15" customHeight="1">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -11790,7 +11790,7 @@
       <c r="S453" s="6"/>
       <c r="T453" s="5"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" ht="15" customHeight="1">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -11812,7 +11812,7 @@
       <c r="S454" s="6"/>
       <c r="T454" s="5"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" ht="15" customHeight="1">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -11834,7 +11834,7 @@
       <c r="S455" s="6"/>
       <c r="T455" s="5"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" ht="15" customHeight="1">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -11856,7 +11856,7 @@
       <c r="S456" s="6"/>
       <c r="T456" s="5"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" ht="15" customHeight="1">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -11878,7 +11878,7 @@
       <c r="S457" s="6"/>
       <c r="T457" s="5"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" ht="15" customHeight="1">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -11900,7 +11900,7 @@
       <c r="S458" s="6"/>
       <c r="T458" s="5"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" ht="15" customHeight="1">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -11922,7 +11922,7 @@
       <c r="S459" s="6"/>
       <c r="T459" s="5"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" ht="15" customHeight="1">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -11944,7 +11944,7 @@
       <c r="S460" s="6"/>
       <c r="T460" s="5"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" ht="15" customHeight="1">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -11966,7 +11966,7 @@
       <c r="S461" s="6"/>
       <c r="T461" s="5"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" ht="15" customHeight="1">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -11988,7 +11988,7 @@
       <c r="S462" s="6"/>
       <c r="T462" s="5"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" ht="15" customHeight="1">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -12010,7 +12010,7 @@
       <c r="S463" s="6"/>
       <c r="T463" s="5"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" ht="15" customHeight="1">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -12032,7 +12032,7 @@
       <c r="S464" s="6"/>
       <c r="T464" s="5"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" ht="15" customHeight="1">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12054,7 +12054,7 @@
       <c r="S465" s="6"/>
       <c r="T465" s="5"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" ht="15" customHeight="1">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12076,7 +12076,7 @@
       <c r="S466" s="6"/>
       <c r="T466" s="5"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" ht="15" customHeight="1">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12098,7 +12098,7 @@
       <c r="S467" s="6"/>
       <c r="T467" s="5"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" ht="15" customHeight="1">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12120,7 +12120,7 @@
       <c r="S468" s="6"/>
       <c r="T468" s="5"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" ht="15" customHeight="1">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12142,7 +12142,7 @@
       <c r="S469" s="6"/>
       <c r="T469" s="5"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" ht="15" customHeight="1">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12164,7 +12164,7 @@
       <c r="S470" s="6"/>
       <c r="T470" s="5"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" ht="15" customHeight="1">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12186,7 +12186,7 @@
       <c r="S471" s="6"/>
       <c r="T471" s="5"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" ht="15" customHeight="1">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12208,7 +12208,7 @@
       <c r="S472" s="6"/>
       <c r="T472" s="5"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" ht="15" customHeight="1">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -12230,7 +12230,7 @@
       <c r="S473" s="6"/>
       <c r="T473" s="5"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" ht="15" customHeight="1">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12252,7 +12252,7 @@
       <c r="S474" s="6"/>
       <c r="T474" s="5"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" ht="15" customHeight="1">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -12274,7 +12274,7 @@
       <c r="S475" s="6"/>
       <c r="T475" s="5"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" ht="15" customHeight="1">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -12296,7 +12296,7 @@
       <c r="S476" s="6"/>
       <c r="T476" s="5"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" ht="15" customHeight="1">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -12318,7 +12318,7 @@
       <c r="S477" s="6"/>
       <c r="T477" s="5"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" ht="15" customHeight="1">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -12340,7 +12340,7 @@
       <c r="S478" s="6"/>
       <c r="T478" s="5"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" ht="15" customHeight="1">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -12362,7 +12362,7 @@
       <c r="S479" s="6"/>
       <c r="T479" s="5"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" ht="15" customHeight="1">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -12384,7 +12384,7 @@
       <c r="S480" s="6"/>
       <c r="T480" s="5"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" ht="15" customHeight="1">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -12406,7 +12406,7 @@
       <c r="S481" s="6"/>
       <c r="T481" s="5"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" ht="15" customHeight="1">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -12428,7 +12428,7 @@
       <c r="S482" s="6"/>
       <c r="T482" s="5"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" ht="15" customHeight="1">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -12450,7 +12450,7 @@
       <c r="S483" s="6"/>
       <c r="T483" s="5"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" ht="15" customHeight="1">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -12472,7 +12472,7 @@
       <c r="S484" s="6"/>
       <c r="T484" s="5"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" ht="15" customHeight="1">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -12494,7 +12494,7 @@
       <c r="S485" s="6"/>
       <c r="T485" s="5"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" ht="15" customHeight="1">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12516,7 +12516,7 @@
       <c r="S486" s="6"/>
       <c r="T486" s="5"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" ht="15" customHeight="1">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -12538,7 +12538,7 @@
       <c r="S487" s="6"/>
       <c r="T487" s="5"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" ht="15" customHeight="1">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -12560,7 +12560,7 @@
       <c r="S488" s="6"/>
       <c r="T488" s="5"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" ht="15" customHeight="1">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -12582,7 +12582,7 @@
       <c r="S489" s="6"/>
       <c r="T489" s="5"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" ht="15" customHeight="1">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -12604,7 +12604,7 @@
       <c r="S490" s="6"/>
       <c r="T490" s="5"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" ht="15" customHeight="1">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -12626,7 +12626,7 @@
       <c r="S491" s="6"/>
       <c r="T491" s="5"/>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" ht="15" customHeight="1">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -12648,7 +12648,7 @@
       <c r="S492" s="6"/>
       <c r="T492" s="5"/>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" ht="15" customHeight="1">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -12670,7 +12670,7 @@
       <c r="S493" s="6"/>
       <c r="T493" s="5"/>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" ht="15" customHeight="1">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -12692,7 +12692,7 @@
       <c r="S494" s="6"/>
       <c r="T494" s="5"/>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" ht="15" customHeight="1">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -12714,7 +12714,7 @@
       <c r="S495" s="6"/>
       <c r="T495" s="5"/>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" ht="15" customHeight="1">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -12736,7 +12736,7 @@
       <c r="S496" s="6"/>
       <c r="T496" s="5"/>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" ht="15" customHeight="1">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -12758,7 +12758,7 @@
       <c r="S497" s="6"/>
       <c r="T497" s="5"/>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" ht="15" customHeight="1">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -12780,7 +12780,7 @@
       <c r="S498" s="6"/>
       <c r="T498" s="5"/>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" ht="15" customHeight="1">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -12802,7 +12802,7 @@
       <c r="S499" s="6"/>
       <c r="T499" s="5"/>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" ht="15" customHeight="1">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -12824,7 +12824,7 @@
       <c r="S500" s="6"/>
       <c r="T500" s="5"/>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" ht="15" customHeight="1">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -12846,7 +12846,7 @@
       <c r="S501" s="6"/>
       <c r="T501" s="5"/>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" ht="15" customHeight="1">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -12868,7 +12868,7 @@
       <c r="S502" s="6"/>
       <c r="T502" s="5"/>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" ht="15" customHeight="1">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -12890,7 +12890,7 @@
       <c r="S503" s="6"/>
       <c r="T503" s="5"/>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" ht="15" customHeight="1">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -12912,7 +12912,7 @@
       <c r="S504" s="6"/>
       <c r="T504" s="5"/>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" ht="15" customHeight="1">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -12934,7 +12934,7 @@
       <c r="S505" s="6"/>
       <c r="T505" s="5"/>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" ht="15" customHeight="1">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -12956,7 +12956,7 @@
       <c r="S506" s="6"/>
       <c r="T506" s="5"/>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" ht="15" customHeight="1">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -12978,7 +12978,7 @@
       <c r="S507" s="6"/>
       <c r="T507" s="5"/>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" ht="15" customHeight="1">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -13000,7 +13000,7 @@
       <c r="S508" s="6"/>
       <c r="T508" s="5"/>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" ht="15" customHeight="1">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13022,7 +13022,7 @@
       <c r="S509" s="6"/>
       <c r="T509" s="5"/>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" ht="15" customHeight="1">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -13044,7 +13044,7 @@
       <c r="S510" s="6"/>
       <c r="T510" s="5"/>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" ht="15" customHeight="1">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -13066,7 +13066,7 @@
       <c r="S511" s="6"/>
       <c r="T511" s="5"/>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" ht="15" customHeight="1">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -13088,7 +13088,7 @@
       <c r="S512" s="6"/>
       <c r="T512" s="5"/>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" ht="15" customHeight="1">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -13110,7 +13110,7 @@
       <c r="S513" s="6"/>
       <c r="T513" s="5"/>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" ht="15" customHeight="1">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -13132,7 +13132,7 @@
       <c r="S514" s="6"/>
       <c r="T514" s="5"/>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" ht="15" customHeight="1">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -13154,7 +13154,7 @@
       <c r="S515" s="6"/>
       <c r="T515" s="5"/>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" ht="15" customHeight="1">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -13176,7 +13176,7 @@
       <c r="S516" s="6"/>
       <c r="T516" s="5"/>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" ht="15" customHeight="1">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -13198,7 +13198,7 @@
       <c r="S517" s="6"/>
       <c r="T517" s="5"/>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" ht="15" customHeight="1">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -13220,7 +13220,7 @@
       <c r="S518" s="6"/>
       <c r="T518" s="5"/>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" ht="15" customHeight="1">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -13242,7 +13242,7 @@
       <c r="S519" s="6"/>
       <c r="T519" s="5"/>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" ht="15" customHeight="1">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -13264,7 +13264,7 @@
       <c r="S520" s="6"/>
       <c r="T520" s="5"/>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" ht="15" customHeight="1">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -13286,7 +13286,7 @@
       <c r="S521" s="6"/>
       <c r="T521" s="5"/>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" ht="15" customHeight="1">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -13308,7 +13308,7 @@
       <c r="S522" s="6"/>
       <c r="T522" s="5"/>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" ht="15" customHeight="1">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -13330,7 +13330,7 @@
       <c r="S523" s="6"/>
       <c r="T523" s="5"/>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" ht="15" customHeight="1">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -13352,7 +13352,7 @@
       <c r="S524" s="6"/>
       <c r="T524" s="5"/>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" ht="15" customHeight="1">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -13374,7 +13374,7 @@
       <c r="S525" s="6"/>
       <c r="T525" s="5"/>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" ht="15" customHeight="1">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -13396,7 +13396,7 @@
       <c r="S526" s="6"/>
       <c r="T526" s="5"/>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" ht="15" customHeight="1">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -13418,7 +13418,7 @@
       <c r="S527" s="6"/>
       <c r="T527" s="5"/>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" ht="15" customHeight="1">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -13440,7 +13440,7 @@
       <c r="S528" s="6"/>
       <c r="T528" s="5"/>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" ht="15" customHeight="1">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -13462,7 +13462,7 @@
       <c r="S529" s="6"/>
       <c r="T529" s="5"/>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" ht="15" customHeight="1">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -13484,7 +13484,7 @@
       <c r="S530" s="6"/>
       <c r="T530" s="5"/>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" ht="15" customHeight="1">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -13506,7 +13506,7 @@
       <c r="S531" s="6"/>
       <c r="T531" s="5"/>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" ht="15" customHeight="1">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -13528,7 +13528,7 @@
       <c r="S532" s="6"/>
       <c r="T532" s="5"/>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" ht="15" customHeight="1">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -13550,7 +13550,7 @@
       <c r="S533" s="6"/>
       <c r="T533" s="5"/>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" ht="15" customHeight="1">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -13572,7 +13572,7 @@
       <c r="S534" s="6"/>
       <c r="T534" s="5"/>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" ht="15" customHeight="1">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -13594,7 +13594,7 @@
       <c r="S535" s="6"/>
       <c r="T535" s="5"/>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" ht="15" customHeight="1">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -13616,7 +13616,7 @@
       <c r="S536" s="6"/>
       <c r="T536" s="5"/>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" ht="15" customHeight="1">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -13638,7 +13638,7 @@
       <c r="S537" s="6"/>
       <c r="T537" s="5"/>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" ht="15" customHeight="1">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -13660,7 +13660,7 @@
       <c r="S538" s="6"/>
       <c r="T538" s="5"/>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" ht="15" customHeight="1">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -13682,7 +13682,7 @@
       <c r="S539" s="6"/>
       <c r="T539" s="5"/>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" ht="15" customHeight="1">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -13704,7 +13704,7 @@
       <c r="S540" s="6"/>
       <c r="T540" s="5"/>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" ht="15" customHeight="1">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -13726,7 +13726,7 @@
       <c r="S541" s="6"/>
       <c r="T541" s="5"/>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" ht="15" customHeight="1">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -13748,7 +13748,7 @@
       <c r="S542" s="6"/>
       <c r="T542" s="5"/>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" ht="15" customHeight="1">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -13770,7 +13770,7 @@
       <c r="S543" s="6"/>
       <c r="T543" s="5"/>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" ht="15" customHeight="1">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -13792,7 +13792,7 @@
       <c r="S544" s="6"/>
       <c r="T544" s="5"/>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" ht="15" customHeight="1">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -13814,7 +13814,7 @@
       <c r="S545" s="6"/>
       <c r="T545" s="5"/>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" ht="15" customHeight="1">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -13836,7 +13836,7 @@
       <c r="S546" s="6"/>
       <c r="T546" s="5"/>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" ht="15" customHeight="1">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -13858,7 +13858,7 @@
       <c r="S547" s="6"/>
       <c r="T547" s="5"/>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" ht="15" customHeight="1">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -13880,7 +13880,7 @@
       <c r="S548" s="6"/>
       <c r="T548" s="5"/>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" ht="15" customHeight="1">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -13902,7 +13902,7 @@
       <c r="S549" s="6"/>
       <c r="T549" s="5"/>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" ht="15" customHeight="1">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -13924,7 +13924,7 @@
       <c r="S550" s="6"/>
       <c r="T550" s="5"/>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" ht="15" customHeight="1">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -13946,7 +13946,7 @@
       <c r="S551" s="6"/>
       <c r="T551" s="5"/>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" ht="15" customHeight="1">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -13968,7 +13968,7 @@
       <c r="S552" s="6"/>
       <c r="T552" s="5"/>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" ht="15" customHeight="1">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -13990,7 +13990,7 @@
       <c r="S553" s="6"/>
       <c r="T553" s="5"/>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" ht="15" customHeight="1">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -14012,7 +14012,7 @@
       <c r="S554" s="6"/>
       <c r="T554" s="5"/>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" ht="15" customHeight="1">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -14034,7 +14034,7 @@
       <c r="S555" s="6"/>
       <c r="T555" s="5"/>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" ht="15" customHeight="1">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -14056,7 +14056,7 @@
       <c r="S556" s="6"/>
       <c r="T556" s="5"/>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" ht="15" customHeight="1">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -14078,7 +14078,7 @@
       <c r="S557" s="6"/>
       <c r="T557" s="5"/>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" ht="15" customHeight="1">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -14100,7 +14100,7 @@
       <c r="S558" s="6"/>
       <c r="T558" s="5"/>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" ht="15" customHeight="1">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -14122,7 +14122,7 @@
       <c r="S559" s="6"/>
       <c r="T559" s="5"/>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" ht="15" customHeight="1">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -14144,7 +14144,7 @@
       <c r="S560" s="6"/>
       <c r="T560" s="5"/>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" ht="15" customHeight="1">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -14166,7 +14166,7 @@
       <c r="S561" s="6"/>
       <c r="T561" s="5"/>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" ht="15" customHeight="1">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -14188,7 +14188,7 @@
       <c r="S562" s="6"/>
       <c r="T562" s="5"/>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" ht="15" customHeight="1">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -14210,7 +14210,7 @@
       <c r="S563" s="6"/>
       <c r="T563" s="5"/>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" ht="15" customHeight="1">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -14232,7 +14232,7 @@
       <c r="S564" s="6"/>
       <c r="T564" s="5"/>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" ht="15" customHeight="1">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -14254,7 +14254,7 @@
       <c r="S565" s="6"/>
       <c r="T565" s="5"/>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" ht="15" customHeight="1">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -14276,7 +14276,7 @@
       <c r="S566" s="6"/>
       <c r="T566" s="5"/>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" ht="15" customHeight="1">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -14298,7 +14298,7 @@
       <c r="S567" s="6"/>
       <c r="T567" s="5"/>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" ht="15" customHeight="1">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -14320,7 +14320,7 @@
       <c r="S568" s="6"/>
       <c r="T568" s="5"/>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" ht="15" customHeight="1">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -14342,7 +14342,7 @@
       <c r="S569" s="6"/>
       <c r="T569" s="5"/>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" ht="15" customHeight="1">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -14364,7 +14364,7 @@
       <c r="S570" s="6"/>
       <c r="T570" s="5"/>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" ht="15" customHeight="1">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -14386,7 +14386,7 @@
       <c r="S571" s="6"/>
       <c r="T571" s="5"/>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" ht="15" customHeight="1">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -14408,7 +14408,7 @@
       <c r="S572" s="6"/>
       <c r="T572" s="5"/>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" ht="15" customHeight="1">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -14430,7 +14430,7 @@
       <c r="S573" s="6"/>
       <c r="T573" s="5"/>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" ht="15" customHeight="1">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -14452,7 +14452,7 @@
       <c r="S574" s="6"/>
       <c r="T574" s="5"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" ht="15" customHeight="1">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -14474,7 +14474,7 @@
       <c r="S575" s="6"/>
       <c r="T575" s="5"/>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" ht="15" customHeight="1">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -14496,7 +14496,7 @@
       <c r="S576" s="6"/>
       <c r="T576" s="5"/>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" ht="15" customHeight="1">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -14518,7 +14518,7 @@
       <c r="S577" s="6"/>
       <c r="T577" s="5"/>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" ht="15" customHeight="1">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -14540,7 +14540,7 @@
       <c r="S578" s="6"/>
       <c r="T578" s="5"/>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" ht="15" customHeight="1">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -14562,7 +14562,7 @@
       <c r="S579" s="6"/>
       <c r="T579" s="5"/>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" ht="15" customHeight="1">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -14584,7 +14584,7 @@
       <c r="S580" s="6"/>
       <c r="T580" s="5"/>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" ht="15" customHeight="1">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -14606,7 +14606,7 @@
       <c r="S581" s="6"/>
       <c r="T581" s="5"/>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" ht="15" customHeight="1">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -14628,7 +14628,7 @@
       <c r="S582" s="6"/>
       <c r="T582" s="5"/>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" ht="15" customHeight="1">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -14650,7 +14650,7 @@
       <c r="S583" s="6"/>
       <c r="T583" s="5"/>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" ht="15" customHeight="1">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -14672,7 +14672,7 @@
       <c r="S584" s="6"/>
       <c r="T584" s="5"/>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" ht="15" customHeight="1">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -14694,7 +14694,7 @@
       <c r="S585" s="6"/>
       <c r="T585" s="5"/>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" ht="15" customHeight="1">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -14716,7 +14716,7 @@
       <c r="S586" s="6"/>
       <c r="T586" s="5"/>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" ht="15" customHeight="1">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -14738,7 +14738,7 @@
       <c r="S587" s="6"/>
       <c r="T587" s="5"/>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" ht="15" customHeight="1">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -14760,7 +14760,7 @@
       <c r="S588" s="6"/>
       <c r="T588" s="5"/>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" ht="15" customHeight="1">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -14782,7 +14782,7 @@
       <c r="S589" s="6"/>
       <c r="T589" s="5"/>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" ht="15" customHeight="1">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -14804,7 +14804,7 @@
       <c r="S590" s="6"/>
       <c r="T590" s="5"/>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" ht="15" customHeight="1">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -14826,7 +14826,7 @@
       <c r="S591" s="6"/>
       <c r="T591" s="5"/>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" ht="15" customHeight="1">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -14848,7 +14848,7 @@
       <c r="S592" s="6"/>
       <c r="T592" s="5"/>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" ht="15" customHeight="1">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -14870,7 +14870,7 @@
       <c r="S593" s="6"/>
       <c r="T593" s="5"/>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" ht="15" customHeight="1">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -14892,7 +14892,7 @@
       <c r="S594" s="6"/>
       <c r="T594" s="5"/>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" ht="15" customHeight="1">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -14914,7 +14914,7 @@
       <c r="S595" s="6"/>
       <c r="T595" s="5"/>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" ht="15" customHeight="1">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -14936,7 +14936,7 @@
       <c r="S596" s="6"/>
       <c r="T596" s="5"/>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" ht="15" customHeight="1">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -14958,7 +14958,7 @@
       <c r="S597" s="6"/>
       <c r="T597" s="5"/>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" ht="15" customHeight="1">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -14980,7 +14980,7 @@
       <c r="S598" s="6"/>
       <c r="T598" s="5"/>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" ht="15" customHeight="1">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -15002,7 +15002,7 @@
       <c r="S599" s="6"/>
       <c r="T599" s="5"/>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" ht="15" customHeight="1">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -15024,7 +15024,7 @@
       <c r="S600" s="6"/>
       <c r="T600" s="5"/>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" ht="15" customHeight="1">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -15046,7 +15046,7 @@
       <c r="S601" s="6"/>
       <c r="T601" s="5"/>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" ht="15" customHeight="1">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -15068,7 +15068,7 @@
       <c r="S602" s="6"/>
       <c r="T602" s="5"/>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" ht="15" customHeight="1">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -15090,7 +15090,7 @@
       <c r="S603" s="6"/>
       <c r="T603" s="5"/>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" ht="15" customHeight="1">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -15112,7 +15112,7 @@
       <c r="S604" s="6"/>
       <c r="T604" s="5"/>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" ht="15" customHeight="1">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -15134,7 +15134,7 @@
       <c r="S605" s="6"/>
       <c r="T605" s="5"/>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" ht="15" customHeight="1">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -15156,7 +15156,7 @@
       <c r="S606" s="6"/>
       <c r="T606" s="5"/>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" ht="15" customHeight="1">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -15178,7 +15178,7 @@
       <c r="S607" s="6"/>
       <c r="T607" s="5"/>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" ht="15" customHeight="1">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -15200,7 +15200,7 @@
       <c r="S608" s="6"/>
       <c r="T608" s="5"/>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" ht="15" customHeight="1">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -15222,7 +15222,7 @@
       <c r="S609" s="6"/>
       <c r="T609" s="5"/>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" ht="15" customHeight="1">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -15244,7 +15244,7 @@
       <c r="S610" s="6"/>
       <c r="T610" s="5"/>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" ht="15" customHeight="1">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -15266,7 +15266,7 @@
       <c r="S611" s="6"/>
       <c r="T611" s="5"/>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" ht="15" customHeight="1">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -15288,7 +15288,7 @@
       <c r="S612" s="6"/>
       <c r="T612" s="5"/>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" ht="15" customHeight="1">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -15310,7 +15310,7 @@
       <c r="S613" s="6"/>
       <c r="T613" s="5"/>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" ht="15" customHeight="1">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -15332,7 +15332,7 @@
       <c r="S614" s="6"/>
       <c r="T614" s="5"/>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" ht="15" customHeight="1">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -15354,7 +15354,7 @@
       <c r="S615" s="6"/>
       <c r="T615" s="5"/>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" ht="15" customHeight="1">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -15376,7 +15376,7 @@
       <c r="S616" s="6"/>
       <c r="T616" s="5"/>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" ht="15" customHeight="1">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -15398,7 +15398,7 @@
       <c r="S617" s="6"/>
       <c r="T617" s="5"/>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" ht="15" customHeight="1">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -15420,7 +15420,7 @@
       <c r="S618" s="6"/>
       <c r="T618" s="5"/>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" ht="15" customHeight="1">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -15442,7 +15442,7 @@
       <c r="S619" s="6"/>
       <c r="T619" s="5"/>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" ht="15" customHeight="1">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -15464,7 +15464,7 @@
       <c r="S620" s="6"/>
       <c r="T620" s="5"/>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" ht="15" customHeight="1">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -15486,7 +15486,7 @@
       <c r="S621" s="6"/>
       <c r="T621" s="5"/>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" ht="15" customHeight="1">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -15508,7 +15508,7 @@
       <c r="S622" s="6"/>
       <c r="T622" s="5"/>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" ht="15" customHeight="1">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -15530,7 +15530,7 @@
       <c r="S623" s="6"/>
       <c r="T623" s="5"/>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" ht="15" customHeight="1">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -15552,7 +15552,7 @@
       <c r="S624" s="6"/>
       <c r="T624" s="5"/>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" ht="15" customHeight="1">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -15574,7 +15574,7 @@
       <c r="S625" s="6"/>
       <c r="T625" s="5"/>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" ht="15" customHeight="1">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -15596,7 +15596,7 @@
       <c r="S626" s="6"/>
       <c r="T626" s="5"/>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" ht="15" customHeight="1">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -15618,7 +15618,7 @@
       <c r="S627" s="6"/>
       <c r="T627" s="5"/>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" ht="15" customHeight="1">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -15640,7 +15640,7 @@
       <c r="S628" s="6"/>
       <c r="T628" s="5"/>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" ht="15" customHeight="1">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -15662,7 +15662,7 @@
       <c r="S629" s="6"/>
       <c r="T629" s="5"/>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" ht="15" customHeight="1">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -15684,7 +15684,7 @@
       <c r="S630" s="6"/>
       <c r="T630" s="5"/>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" ht="15" customHeight="1">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -15706,7 +15706,7 @@
       <c r="S631" s="6"/>
       <c r="T631" s="5"/>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" ht="15" customHeight="1">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -15728,7 +15728,7 @@
       <c r="S632" s="6"/>
       <c r="T632" s="5"/>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" ht="15" customHeight="1">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -15750,7 +15750,7 @@
       <c r="S633" s="6"/>
       <c r="T633" s="5"/>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" ht="15" customHeight="1">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -15772,7 +15772,7 @@
       <c r="S634" s="6"/>
       <c r="T634" s="5"/>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" ht="15" customHeight="1">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -15794,7 +15794,7 @@
       <c r="S635" s="6"/>
       <c r="T635" s="5"/>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" ht="15" customHeight="1">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -15816,7 +15816,7 @@
       <c r="S636" s="6"/>
       <c r="T636" s="5"/>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" ht="15" customHeight="1">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -15838,7 +15838,7 @@
       <c r="S637" s="6"/>
       <c r="T637" s="5"/>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" ht="15" customHeight="1">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -15860,7 +15860,7 @@
       <c r="S638" s="6"/>
       <c r="T638" s="5"/>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" ht="15" customHeight="1">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -15882,7 +15882,7 @@
       <c r="S639" s="6"/>
       <c r="T639" s="5"/>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" ht="15" customHeight="1">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -15904,7 +15904,7 @@
       <c r="S640" s="6"/>
       <c r="T640" s="5"/>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" ht="15" customHeight="1">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -15926,7 +15926,7 @@
       <c r="S641" s="6"/>
       <c r="T641" s="5"/>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" ht="15" customHeight="1">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -15948,7 +15948,7 @@
       <c r="S642" s="6"/>
       <c r="T642" s="5"/>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" ht="15" customHeight="1">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -15970,7 +15970,7 @@
       <c r="S643" s="6"/>
       <c r="T643" s="5"/>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" ht="15" customHeight="1">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -15992,7 +15992,7 @@
       <c r="S644" s="6"/>
       <c r="T644" s="5"/>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" ht="15" customHeight="1">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -16014,7 +16014,7 @@
       <c r="S645" s="6"/>
       <c r="T645" s="5"/>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" ht="15" customHeight="1">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -16036,7 +16036,7 @@
       <c r="S646" s="6"/>
       <c r="T646" s="5"/>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" ht="15" customHeight="1">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -16058,7 +16058,7 @@
       <c r="S647" s="6"/>
       <c r="T647" s="5"/>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" ht="15" customHeight="1">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -16080,7 +16080,7 @@
       <c r="S648" s="6"/>
       <c r="T648" s="5"/>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" ht="15" customHeight="1">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -16102,7 +16102,7 @@
       <c r="S649" s="6"/>
       <c r="T649" s="5"/>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" ht="15" customHeight="1">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -16124,7 +16124,7 @@
       <c r="S650" s="6"/>
       <c r="T650" s="5"/>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" ht="15" customHeight="1">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -16146,7 +16146,7 @@
       <c r="S651" s="6"/>
       <c r="T651" s="5"/>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" ht="15" customHeight="1">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -16168,7 +16168,7 @@
       <c r="S652" s="6"/>
       <c r="T652" s="5"/>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" ht="15" customHeight="1">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -16190,7 +16190,7 @@
       <c r="S653" s="6"/>
       <c r="T653" s="5"/>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" ht="15" customHeight="1">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -16212,7 +16212,7 @@
       <c r="S654" s="6"/>
       <c r="T654" s="5"/>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" ht="15" customHeight="1">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -16234,7 +16234,7 @@
       <c r="S655" s="6"/>
       <c r="T655" s="5"/>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" ht="15" customHeight="1">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -16256,7 +16256,7 @@
       <c r="S656" s="6"/>
       <c r="T656" s="5"/>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" ht="15" customHeight="1">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -16278,7 +16278,7 @@
       <c r="S657" s="6"/>
       <c r="T657" s="5"/>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" ht="15" customHeight="1">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -16300,7 +16300,7 @@
       <c r="S658" s="6"/>
       <c r="T658" s="5"/>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" ht="15" customHeight="1">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -16322,7 +16322,7 @@
       <c r="S659" s="6"/>
       <c r="T659" s="5"/>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" ht="15" customHeight="1">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -16344,7 +16344,7 @@
       <c r="S660" s="6"/>
       <c r="T660" s="5"/>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" ht="15" customHeight="1">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -16366,7 +16366,7 @@
       <c r="S661" s="6"/>
       <c r="T661" s="5"/>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" ht="15" customHeight="1">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -16388,7 +16388,7 @@
       <c r="S662" s="6"/>
       <c r="T662" s="5"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" ht="15" customHeight="1">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -16410,7 +16410,7 @@
       <c r="S663" s="6"/>
       <c r="T663" s="5"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" ht="15" customHeight="1">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -16432,7 +16432,7 @@
       <c r="S664" s="6"/>
       <c r="T664" s="5"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" ht="15" customHeight="1">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -16454,7 +16454,7 @@
       <c r="S665" s="6"/>
       <c r="T665" s="5"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" ht="15" customHeight="1">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -16476,7 +16476,7 @@
       <c r="S666" s="6"/>
       <c r="T666" s="5"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" ht="15" customHeight="1">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -16498,7 +16498,7 @@
       <c r="S667" s="6"/>
       <c r="T667" s="5"/>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" ht="15" customHeight="1">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -16520,7 +16520,7 @@
       <c r="S668" s="6"/>
       <c r="T668" s="5"/>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" ht="15" customHeight="1">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -16542,7 +16542,7 @@
       <c r="S669" s="6"/>
       <c r="T669" s="5"/>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" ht="15" customHeight="1">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -16564,7 +16564,7 @@
       <c r="S670" s="6"/>
       <c r="T670" s="5"/>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" ht="15" customHeight="1">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -16586,7 +16586,7 @@
       <c r="S671" s="6"/>
       <c r="T671" s="5"/>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" ht="15" customHeight="1">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -16608,7 +16608,7 @@
       <c r="S672" s="6"/>
       <c r="T672" s="5"/>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" ht="15" customHeight="1">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -16630,7 +16630,7 @@
       <c r="S673" s="6"/>
       <c r="T673" s="5"/>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" ht="15" customHeight="1">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -16652,7 +16652,7 @@
       <c r="S674" s="6"/>
       <c r="T674" s="5"/>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" ht="15" customHeight="1">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -16674,7 +16674,7 @@
       <c r="S675" s="6"/>
       <c r="T675" s="5"/>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" ht="15" customHeight="1">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -16696,7 +16696,7 @@
       <c r="S676" s="6"/>
       <c r="T676" s="5"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" ht="15" customHeight="1">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -16718,7 +16718,7 @@
       <c r="S677" s="6"/>
       <c r="T677" s="5"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" ht="15" customHeight="1">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -16740,7 +16740,7 @@
       <c r="S678" s="6"/>
       <c r="T678" s="5"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" ht="15" customHeight="1">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -16762,7 +16762,7 @@
       <c r="S679" s="6"/>
       <c r="T679" s="5"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" ht="15" customHeight="1">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -16784,7 +16784,7 @@
       <c r="S680" s="6"/>
       <c r="T680" s="5"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" ht="15" customHeight="1">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -16806,7 +16806,7 @@
       <c r="S681" s="6"/>
       <c r="T681" s="5"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" ht="15" customHeight="1">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -16828,7 +16828,7 @@
       <c r="S682" s="6"/>
       <c r="T682" s="5"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" ht="15" customHeight="1">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -16850,7 +16850,7 @@
       <c r="S683" s="6"/>
       <c r="T683" s="5"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" ht="15" customHeight="1">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -16872,7 +16872,7 @@
       <c r="S684" s="6"/>
       <c r="T684" s="5"/>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" ht="15" customHeight="1">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -16894,7 +16894,7 @@
       <c r="S685" s="6"/>
       <c r="T685" s="5"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" ht="15" customHeight="1">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -16916,7 +16916,7 @@
       <c r="S686" s="6"/>
       <c r="T686" s="5"/>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" ht="15" customHeight="1">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -16938,7 +16938,7 @@
       <c r="S687" s="6"/>
       <c r="T687" s="5"/>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" ht="15" customHeight="1">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -16960,7 +16960,7 @@
       <c r="S688" s="6"/>
       <c r="T688" s="5"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" ht="15" customHeight="1">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -16982,7 +16982,7 @@
       <c r="S689" s="6"/>
       <c r="T689" s="5"/>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" ht="15" customHeight="1">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -17004,7 +17004,7 @@
       <c r="S690" s="6"/>
       <c r="T690" s="5"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" ht="15" customHeight="1">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -17026,7 +17026,7 @@
       <c r="S691" s="6"/>
       <c r="T691" s="5"/>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" ht="15" customHeight="1">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -17048,7 +17048,7 @@
       <c r="S692" s="6"/>
       <c r="T692" s="5"/>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" ht="15" customHeight="1">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -17070,7 +17070,7 @@
       <c r="S693" s="6"/>
       <c r="T693" s="5"/>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" ht="15" customHeight="1">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -17092,7 +17092,7 @@
       <c r="S694" s="6"/>
       <c r="T694" s="5"/>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" ht="15" customHeight="1">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -17114,7 +17114,7 @@
       <c r="S695" s="6"/>
       <c r="T695" s="5"/>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" ht="15" customHeight="1">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -17136,7 +17136,7 @@
       <c r="S696" s="6"/>
       <c r="T696" s="5"/>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" ht="15" customHeight="1">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -17158,7 +17158,7 @@
       <c r="S697" s="6"/>
       <c r="T697" s="5"/>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" ht="15" customHeight="1">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -17180,7 +17180,7 @@
       <c r="S698" s="6"/>
       <c r="T698" s="5"/>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" ht="15" customHeight="1">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -17202,7 +17202,7 @@
       <c r="S699" s="6"/>
       <c r="T699" s="5"/>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" ht="15" customHeight="1">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -17224,7 +17224,7 @@
       <c r="S700" s="6"/>
       <c r="T700" s="5"/>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" ht="15" customHeight="1">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -17246,7 +17246,7 @@
       <c r="S701" s="6"/>
       <c r="T701" s="5"/>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" ht="15" customHeight="1">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -17268,7 +17268,7 @@
       <c r="S702" s="6"/>
       <c r="T702" s="5"/>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" ht="15" customHeight="1">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -17290,7 +17290,7 @@
       <c r="S703" s="6"/>
       <c r="T703" s="5"/>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" ht="15" customHeight="1">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -17312,7 +17312,7 @@
       <c r="S704" s="6"/>
       <c r="T704" s="5"/>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" ht="15" customHeight="1">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -17334,7 +17334,7 @@
       <c r="S705" s="6"/>
       <c r="T705" s="5"/>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" ht="15" customHeight="1">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -17356,7 +17356,7 @@
       <c r="S706" s="6"/>
       <c r="T706" s="5"/>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" ht="15" customHeight="1">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -17378,7 +17378,7 @@
       <c r="S707" s="6"/>
       <c r="T707" s="5"/>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" ht="15" customHeight="1">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -17400,7 +17400,7 @@
       <c r="S708" s="6"/>
       <c r="T708" s="5"/>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" ht="15" customHeight="1">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -17422,7 +17422,7 @@
       <c r="S709" s="6"/>
       <c r="T709" s="5"/>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" ht="15" customHeight="1">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -17444,7 +17444,7 @@
       <c r="S710" s="6"/>
       <c r="T710" s="5"/>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" ht="15" customHeight="1">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -17466,7 +17466,7 @@
       <c r="S711" s="6"/>
       <c r="T711" s="5"/>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" ht="15" customHeight="1">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -17488,7 +17488,7 @@
       <c r="S712" s="6"/>
       <c r="T712" s="5"/>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" ht="15" customHeight="1">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -17510,7 +17510,7 @@
       <c r="S713" s="6"/>
       <c r="T713" s="5"/>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" ht="15" customHeight="1">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -17532,7 +17532,7 @@
       <c r="S714" s="6"/>
       <c r="T714" s="5"/>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" ht="15" customHeight="1">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -17554,7 +17554,7 @@
       <c r="S715" s="6"/>
       <c r="T715" s="5"/>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" ht="15" customHeight="1">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -17576,7 +17576,7 @@
       <c r="S716" s="6"/>
       <c r="T716" s="5"/>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" ht="15" customHeight="1">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -17598,7 +17598,7 @@
       <c r="S717" s="6"/>
       <c r="T717" s="5"/>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" ht="15" customHeight="1">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -17620,7 +17620,7 @@
       <c r="S718" s="6"/>
       <c r="T718" s="5"/>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" ht="15" customHeight="1">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -17642,7 +17642,7 @@
       <c r="S719" s="6"/>
       <c r="T719" s="5"/>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" ht="15" customHeight="1">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -17664,7 +17664,7 @@
       <c r="S720" s="6"/>
       <c r="T720" s="5"/>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" ht="15" customHeight="1">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -17686,7 +17686,7 @@
       <c r="S721" s="6"/>
       <c r="T721" s="5"/>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" ht="15" customHeight="1">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -17708,7 +17708,7 @@
       <c r="S722" s="6"/>
       <c r="T722" s="5"/>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" ht="15" customHeight="1">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -17730,7 +17730,7 @@
       <c r="S723" s="6"/>
       <c r="T723" s="5"/>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" ht="15" customHeight="1">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -17752,7 +17752,7 @@
       <c r="S724" s="6"/>
       <c r="T724" s="5"/>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" ht="15" customHeight="1">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -17774,7 +17774,7 @@
       <c r="S725" s="6"/>
       <c r="T725" s="5"/>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" ht="15" customHeight="1">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -17796,7 +17796,7 @@
       <c r="S726" s="6"/>
       <c r="T726" s="5"/>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" ht="15" customHeight="1">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -17818,7 +17818,7 @@
       <c r="S727" s="6"/>
       <c r="T727" s="5"/>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" ht="15" customHeight="1">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -17840,7 +17840,7 @@
       <c r="S728" s="6"/>
       <c r="T728" s="5"/>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" ht="15" customHeight="1">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -17862,7 +17862,7 @@
       <c r="S729" s="6"/>
       <c r="T729" s="5"/>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" ht="15" customHeight="1">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -17884,7 +17884,7 @@
       <c r="S730" s="6"/>
       <c r="T730" s="5"/>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" ht="15" customHeight="1">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -17906,7 +17906,7 @@
       <c r="S731" s="6"/>
       <c r="T731" s="5"/>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" ht="15" customHeight="1">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -17928,7 +17928,7 @@
       <c r="S732" s="6"/>
       <c r="T732" s="5"/>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" ht="15" customHeight="1">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -17950,7 +17950,7 @@
       <c r="S733" s="6"/>
       <c r="T733" s="5"/>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" ht="15" customHeight="1">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -17972,7 +17972,7 @@
       <c r="S734" s="6"/>
       <c r="T734" s="5"/>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" ht="15" customHeight="1">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -17994,7 +17994,7 @@
       <c r="S735" s="6"/>
       <c r="T735" s="5"/>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" ht="15" customHeight="1">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -18016,7 +18016,7 @@
       <c r="S736" s="6"/>
       <c r="T736" s="5"/>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" ht="15" customHeight="1">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -18038,7 +18038,7 @@
       <c r="S737" s="6"/>
       <c r="T737" s="5"/>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" ht="15" customHeight="1">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -18060,7 +18060,7 @@
       <c r="S738" s="6"/>
       <c r="T738" s="5"/>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" ht="15" customHeight="1">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -18082,7 +18082,7 @@
       <c r="S739" s="6"/>
       <c r="T739" s="5"/>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" ht="15" customHeight="1">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -18104,7 +18104,7 @@
       <c r="S740" s="6"/>
       <c r="T740" s="5"/>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" ht="15" customHeight="1">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -18126,7 +18126,7 @@
       <c r="S741" s="6"/>
       <c r="T741" s="5"/>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" ht="15" customHeight="1">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -18148,7 +18148,7 @@
       <c r="S742" s="6"/>
       <c r="T742" s="5"/>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" ht="15" customHeight="1">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -18170,7 +18170,7 @@
       <c r="S743" s="6"/>
       <c r="T743" s="5"/>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" ht="15" customHeight="1">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -18192,7 +18192,7 @@
       <c r="S744" s="6"/>
       <c r="T744" s="5"/>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" ht="15" customHeight="1">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -18214,7 +18214,7 @@
       <c r="S745" s="6"/>
       <c r="T745" s="5"/>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" ht="15" customHeight="1">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -18236,7 +18236,7 @@
       <c r="S746" s="6"/>
       <c r="T746" s="5"/>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" ht="15" customHeight="1">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -18258,7 +18258,7 @@
       <c r="S747" s="6"/>
       <c r="T747" s="5"/>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" ht="15" customHeight="1">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -18280,7 +18280,7 @@
       <c r="S748" s="6"/>
       <c r="T748" s="5"/>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" ht="15" customHeight="1">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -18302,7 +18302,7 @@
       <c r="S749" s="6"/>
       <c r="T749" s="5"/>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" ht="15" customHeight="1">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -18324,7 +18324,7 @@
       <c r="S750" s="6"/>
       <c r="T750" s="5"/>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" ht="15" customHeight="1">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -18346,7 +18346,7 @@
       <c r="S751" s="6"/>
       <c r="T751" s="5"/>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" ht="15" customHeight="1">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -18368,7 +18368,7 @@
       <c r="S752" s="6"/>
       <c r="T752" s="5"/>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" ht="15" customHeight="1">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -18390,7 +18390,7 @@
       <c r="S753" s="6"/>
       <c r="T753" s="5"/>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" ht="15" customHeight="1">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -18412,7 +18412,7 @@
       <c r="S754" s="6"/>
       <c r="T754" s="5"/>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" ht="15" customHeight="1">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -18434,7 +18434,7 @@
       <c r="S755" s="6"/>
       <c r="T755" s="5"/>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" ht="15" customHeight="1">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -18456,7 +18456,7 @@
       <c r="S756" s="6"/>
       <c r="T756" s="5"/>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" ht="15" customHeight="1">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -18478,7 +18478,7 @@
       <c r="S757" s="6"/>
       <c r="T757" s="5"/>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" ht="15" customHeight="1">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -18500,7 +18500,7 @@
       <c r="S758" s="6"/>
       <c r="T758" s="5"/>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" ht="15" customHeight="1">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -18522,7 +18522,7 @@
       <c r="S759" s="6"/>
       <c r="T759" s="5"/>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" ht="15" customHeight="1">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -18544,7 +18544,7 @@
       <c r="S760" s="6"/>
       <c r="T760" s="5"/>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" ht="15" customHeight="1">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -18566,7 +18566,7 @@
       <c r="S761" s="6"/>
       <c r="T761" s="5"/>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" ht="15" customHeight="1">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -18588,7 +18588,7 @@
       <c r="S762" s="6"/>
       <c r="T762" s="5"/>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" ht="15" customHeight="1">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -18610,7 +18610,7 @@
       <c r="S763" s="6"/>
       <c r="T763" s="5"/>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" ht="15" customHeight="1">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -18632,7 +18632,7 @@
       <c r="S764" s="6"/>
       <c r="T764" s="5"/>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" ht="15" customHeight="1">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -18654,7 +18654,7 @@
       <c r="S765" s="6"/>
       <c r="T765" s="5"/>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" ht="15" customHeight="1">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -18676,7 +18676,7 @@
       <c r="S766" s="6"/>
       <c r="T766" s="5"/>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" ht="15" customHeight="1">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -18698,7 +18698,7 @@
       <c r="S767" s="6"/>
       <c r="T767" s="5"/>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" ht="15" customHeight="1">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -18720,7 +18720,7 @@
       <c r="S768" s="6"/>
       <c r="T768" s="5"/>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" ht="15" customHeight="1">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -18742,7 +18742,7 @@
       <c r="S769" s="6"/>
       <c r="T769" s="5"/>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" ht="15" customHeight="1">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -18764,7 +18764,7 @@
       <c r="S770" s="6"/>
       <c r="T770" s="5"/>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" ht="15" customHeight="1">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -18786,7 +18786,7 @@
       <c r="S771" s="6"/>
       <c r="T771" s="5"/>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" ht="15" customHeight="1">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -18808,7 +18808,7 @@
       <c r="S772" s="6"/>
       <c r="T772" s="5"/>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" ht="15" customHeight="1">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -18830,7 +18830,7 @@
       <c r="S773" s="6"/>
       <c r="T773" s="5"/>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" ht="15" customHeight="1">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -18852,7 +18852,7 @@
       <c r="S774" s="6"/>
       <c r="T774" s="5"/>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" ht="15" customHeight="1">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -18874,7 +18874,7 @@
       <c r="S775" s="6"/>
       <c r="T775" s="5"/>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" ht="15" customHeight="1">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -18896,7 +18896,7 @@
       <c r="S776" s="6"/>
       <c r="T776" s="5"/>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" ht="15" customHeight="1">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -18918,7 +18918,7 @@
       <c r="S777" s="6"/>
       <c r="T777" s="5"/>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" ht="15" customHeight="1">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -18940,7 +18940,7 @@
       <c r="S778" s="6"/>
       <c r="T778" s="5"/>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" ht="15" customHeight="1">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -18962,7 +18962,7 @@
       <c r="S779" s="6"/>
       <c r="T779" s="5"/>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" ht="15" customHeight="1">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -18984,7 +18984,7 @@
       <c r="S780" s="6"/>
       <c r="T780" s="5"/>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" ht="15" customHeight="1">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -19006,7 +19006,7 @@
       <c r="S781" s="6"/>
       <c r="T781" s="5"/>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" ht="15" customHeight="1">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -19028,7 +19028,7 @@
       <c r="S782" s="6"/>
       <c r="T782" s="5"/>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" ht="15" customHeight="1">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -19050,7 +19050,7 @@
       <c r="S783" s="6"/>
       <c r="T783" s="5"/>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" ht="15" customHeight="1">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -19072,7 +19072,7 @@
       <c r="S784" s="6"/>
       <c r="T784" s="5"/>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" ht="15" customHeight="1">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -19094,7 +19094,7 @@
       <c r="S785" s="6"/>
       <c r="T785" s="5"/>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" ht="15" customHeight="1">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -19116,7 +19116,7 @@
       <c r="S786" s="6"/>
       <c r="T786" s="5"/>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" ht="15" customHeight="1">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -19138,7 +19138,7 @@
       <c r="S787" s="6"/>
       <c r="T787" s="5"/>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" ht="15" customHeight="1">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -19160,7 +19160,7 @@
       <c r="S788" s="6"/>
       <c r="T788" s="5"/>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" ht="15" customHeight="1">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -19182,7 +19182,7 @@
       <c r="S789" s="6"/>
       <c r="T789" s="5"/>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" ht="15" customHeight="1">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -19204,7 +19204,7 @@
       <c r="S790" s="6"/>
       <c r="T790" s="5"/>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" ht="15" customHeight="1">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -19226,7 +19226,7 @@
       <c r="S791" s="6"/>
       <c r="T791" s="5"/>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" ht="15" customHeight="1">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -19248,7 +19248,7 @@
       <c r="S792" s="6"/>
       <c r="T792" s="5"/>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" ht="15" customHeight="1">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -19270,7 +19270,7 @@
       <c r="S793" s="6"/>
       <c r="T793" s="5"/>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" ht="15" customHeight="1">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -19292,7 +19292,7 @@
       <c r="S794" s="6"/>
       <c r="T794" s="5"/>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" ht="15" customHeight="1">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -19314,7 +19314,7 @@
       <c r="S795" s="6"/>
       <c r="T795" s="5"/>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" ht="15" customHeight="1">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -19336,7 +19336,7 @@
       <c r="S796" s="6"/>
       <c r="T796" s="5"/>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" ht="15" customHeight="1">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -19358,7 +19358,7 @@
       <c r="S797" s="6"/>
       <c r="T797" s="5"/>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" ht="15" customHeight="1">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -19380,7 +19380,7 @@
       <c r="S798" s="6"/>
       <c r="T798" s="5"/>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" ht="15" customHeight="1">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -19402,7 +19402,7 @@
       <c r="S799" s="6"/>
       <c r="T799" s="5"/>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" ht="15" customHeight="1">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -19424,7 +19424,7 @@
       <c r="S800" s="6"/>
       <c r="T800" s="5"/>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" ht="15" customHeight="1">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -19446,7 +19446,7 @@
       <c r="S801" s="6"/>
       <c r="T801" s="5"/>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" ht="15" customHeight="1">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -19468,7 +19468,7 @@
       <c r="S802" s="6"/>
       <c r="T802" s="5"/>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" ht="15" customHeight="1">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -19490,7 +19490,7 @@
       <c r="S803" s="6"/>
       <c r="T803" s="5"/>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" ht="15" customHeight="1">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -19512,7 +19512,7 @@
       <c r="S804" s="6"/>
       <c r="T804" s="5"/>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" ht="15" customHeight="1">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -19534,7 +19534,7 @@
       <c r="S805" s="6"/>
       <c r="T805" s="5"/>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" ht="15" customHeight="1">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -19556,7 +19556,7 @@
       <c r="S806" s="6"/>
       <c r="T806" s="5"/>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" ht="15" customHeight="1">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -19578,7 +19578,7 @@
       <c r="S807" s="6"/>
       <c r="T807" s="5"/>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" ht="15" customHeight="1">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -19600,7 +19600,7 @@
       <c r="S808" s="6"/>
       <c r="T808" s="5"/>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" ht="15" customHeight="1">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -19622,7 +19622,7 @@
       <c r="S809" s="6"/>
       <c r="T809" s="5"/>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" ht="15" customHeight="1">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -19644,7 +19644,7 @@
       <c r="S810" s="6"/>
       <c r="T810" s="5"/>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" ht="15" customHeight="1">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -19666,7 +19666,7 @@
       <c r="S811" s="6"/>
       <c r="T811" s="5"/>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" ht="15" customHeight="1">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -19688,7 +19688,7 @@
       <c r="S812" s="6"/>
       <c r="T812" s="5"/>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" ht="15" customHeight="1">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -19710,7 +19710,7 @@
       <c r="S813" s="6"/>
       <c r="T813" s="5"/>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" ht="15" customHeight="1">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -19732,7 +19732,7 @@
       <c r="S814" s="6"/>
       <c r="T814" s="5"/>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" ht="15" customHeight="1">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -19754,7 +19754,7 @@
       <c r="S815" s="6"/>
       <c r="T815" s="5"/>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" ht="15" customHeight="1">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -19776,7 +19776,7 @@
       <c r="S816" s="6"/>
       <c r="T816" s="5"/>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" ht="15" customHeight="1">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -19798,7 +19798,7 @@
       <c r="S817" s="6"/>
       <c r="T817" s="5"/>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" ht="15" customHeight="1">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -19820,7 +19820,7 @@
       <c r="S818" s="6"/>
       <c r="T818" s="5"/>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" ht="15" customHeight="1">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -19842,7 +19842,7 @@
       <c r="S819" s="6"/>
       <c r="T819" s="5"/>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" ht="15" customHeight="1">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -19864,7 +19864,7 @@
       <c r="S820" s="6"/>
       <c r="T820" s="5"/>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" ht="15" customHeight="1">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -19886,7 +19886,7 @@
       <c r="S821" s="6"/>
       <c r="T821" s="5"/>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" ht="15" customHeight="1">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -19908,7 +19908,7 @@
       <c r="S822" s="6"/>
       <c r="T822" s="5"/>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" ht="15" customHeight="1">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -19930,7 +19930,7 @@
       <c r="S823" s="6"/>
       <c r="T823" s="5"/>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" ht="15" customHeight="1">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -19952,7 +19952,7 @@
       <c r="S824" s="6"/>
       <c r="T824" s="5"/>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" ht="15" customHeight="1">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -19974,7 +19974,7 @@
       <c r="S825" s="6"/>
       <c r="T825" s="5"/>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" ht="15" customHeight="1">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -19996,7 +19996,7 @@
       <c r="S826" s="6"/>
       <c r="T826" s="5"/>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" ht="15" customHeight="1">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -20018,7 +20018,7 @@
       <c r="S827" s="6"/>
       <c r="T827" s="5"/>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" ht="15" customHeight="1">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -20040,7 +20040,7 @@
       <c r="S828" s="6"/>
       <c r="T828" s="5"/>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" ht="15" customHeight="1">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -20062,7 +20062,7 @@
       <c r="S829" s="6"/>
       <c r="T829" s="5"/>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" ht="15" customHeight="1">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -20084,7 +20084,7 @@
       <c r="S830" s="6"/>
       <c r="T830" s="5"/>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" ht="15" customHeight="1">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -20106,7 +20106,7 @@
       <c r="S831" s="6"/>
       <c r="T831" s="5"/>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" ht="15" customHeight="1">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -20128,7 +20128,7 @@
       <c r="S832" s="6"/>
       <c r="T832" s="5"/>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" ht="15" customHeight="1">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -20150,7 +20150,7 @@
       <c r="S833" s="6"/>
       <c r="T833" s="5"/>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" ht="15" customHeight="1">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -20172,7 +20172,7 @@
       <c r="S834" s="6"/>
       <c r="T834" s="5"/>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" ht="15" customHeight="1">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -20194,7 +20194,7 @@
       <c r="S835" s="6"/>
       <c r="T835" s="5"/>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" ht="15" customHeight="1">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -20216,7 +20216,7 @@
       <c r="S836" s="6"/>
       <c r="T836" s="5"/>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" ht="15" customHeight="1">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -20238,7 +20238,7 @@
       <c r="S837" s="6"/>
       <c r="T837" s="5"/>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" ht="15" customHeight="1">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -20260,7 +20260,7 @@
       <c r="S838" s="6"/>
       <c r="T838" s="5"/>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" ht="15" customHeight="1">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -20282,7 +20282,7 @@
       <c r="S839" s="6"/>
       <c r="T839" s="5"/>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" ht="15" customHeight="1">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -20304,7 +20304,7 @@
       <c r="S840" s="6"/>
       <c r="T840" s="5"/>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" ht="15" customHeight="1">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -20326,7 +20326,7 @@
       <c r="S841" s="6"/>
       <c r="T841" s="5"/>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" ht="15" customHeight="1">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -20348,7 +20348,7 @@
       <c r="S842" s="6"/>
       <c r="T842" s="5"/>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" ht="15" customHeight="1">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -20370,7 +20370,7 @@
       <c r="S843" s="6"/>
       <c r="T843" s="5"/>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" ht="15" customHeight="1">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -20392,7 +20392,7 @@
       <c r="S844" s="6"/>
       <c r="T844" s="5"/>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" ht="15" customHeight="1">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -20414,7 +20414,7 @@
       <c r="S845" s="6"/>
       <c r="T845" s="5"/>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" ht="15" customHeight="1">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -20436,7 +20436,7 @@
       <c r="S846" s="6"/>
       <c r="T846" s="5"/>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" ht="15" customHeight="1">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -20458,7 +20458,7 @@
       <c r="S847" s="6"/>
       <c r="T847" s="5"/>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" ht="15" customHeight="1">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -20480,7 +20480,7 @@
       <c r="S848" s="6"/>
       <c r="T848" s="5"/>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" ht="15" customHeight="1">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -20502,7 +20502,7 @@
       <c r="S849" s="6"/>
       <c r="T849" s="5"/>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" ht="15" customHeight="1">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -20524,7 +20524,7 @@
       <c r="S850" s="6"/>
       <c r="T850" s="5"/>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" ht="15" customHeight="1">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -20546,7 +20546,7 @@
       <c r="S851" s="6"/>
       <c r="T851" s="5"/>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" ht="15" customHeight="1">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -20568,7 +20568,7 @@
       <c r="S852" s="6"/>
       <c r="T852" s="5"/>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" ht="15" customHeight="1">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -20590,7 +20590,7 @@
       <c r="S853" s="6"/>
       <c r="T853" s="5"/>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" ht="15" customHeight="1">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -20612,7 +20612,7 @@
       <c r="S854" s="6"/>
       <c r="T854" s="5"/>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" ht="15" customHeight="1">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -20634,7 +20634,7 @@
       <c r="S855" s="6"/>
       <c r="T855" s="5"/>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" ht="15" customHeight="1">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -20656,7 +20656,7 @@
       <c r="S856" s="6"/>
       <c r="T856" s="5"/>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" ht="15" customHeight="1">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -20678,7 +20678,7 @@
       <c r="S857" s="6"/>
       <c r="T857" s="5"/>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" ht="15" customHeight="1">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -20700,7 +20700,7 @@
       <c r="S858" s="6"/>
       <c r="T858" s="5"/>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" ht="15" customHeight="1">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -20722,7 +20722,7 @@
       <c r="S859" s="6"/>
       <c r="T859" s="5"/>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" ht="15" customHeight="1">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -20744,7 +20744,7 @@
       <c r="S860" s="6"/>
       <c r="T860" s="5"/>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" ht="15" customHeight="1">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -20766,7 +20766,7 @@
       <c r="S861" s="6"/>
       <c r="T861" s="5"/>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" ht="15" customHeight="1">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -20788,7 +20788,7 @@
       <c r="S862" s="6"/>
       <c r="T862" s="5"/>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" ht="15" customHeight="1">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -20810,7 +20810,7 @@
       <c r="S863" s="6"/>
       <c r="T863" s="5"/>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" ht="15" customHeight="1">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -20832,7 +20832,7 @@
       <c r="S864" s="6"/>
       <c r="T864" s="5"/>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" ht="15" customHeight="1">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -20854,7 +20854,7 @@
       <c r="S865" s="6"/>
       <c r="T865" s="5"/>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" ht="15" customHeight="1">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -20876,7 +20876,7 @@
       <c r="S866" s="6"/>
       <c r="T866" s="5"/>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" ht="15" customHeight="1">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -20898,7 +20898,7 @@
       <c r="S867" s="6"/>
       <c r="T867" s="5"/>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" ht="15" customHeight="1">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -20920,7 +20920,7 @@
       <c r="S868" s="6"/>
       <c r="T868" s="5"/>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" ht="15" customHeight="1">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -20942,7 +20942,7 @@
       <c r="S869" s="6"/>
       <c r="T869" s="5"/>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" ht="15" customHeight="1">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -20964,7 +20964,7 @@
       <c r="S870" s="6"/>
       <c r="T870" s="5"/>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" ht="15" customHeight="1">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -20986,7 +20986,7 @@
       <c r="S871" s="6"/>
       <c r="T871" s="5"/>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" ht="15" customHeight="1">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -21008,7 +21008,7 @@
       <c r="S872" s="6"/>
       <c r="T872" s="5"/>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" ht="15" customHeight="1">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -21030,7 +21030,7 @@
       <c r="S873" s="6"/>
       <c r="T873" s="5"/>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" ht="15" customHeight="1">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -21052,7 +21052,7 @@
       <c r="S874" s="6"/>
       <c r="T874" s="5"/>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" ht="15" customHeight="1">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -21074,7 +21074,7 @@
       <c r="S875" s="6"/>
       <c r="T875" s="5"/>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" ht="15" customHeight="1">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -21096,7 +21096,7 @@
       <c r="S876" s="6"/>
       <c r="T876" s="5"/>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" ht="15" customHeight="1">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -21118,7 +21118,7 @@
       <c r="S877" s="6"/>
       <c r="T877" s="5"/>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" ht="15" customHeight="1">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -21140,7 +21140,7 @@
       <c r="S878" s="6"/>
       <c r="T878" s="5"/>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" ht="15" customHeight="1">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -21162,7 +21162,7 @@
       <c r="S879" s="6"/>
       <c r="T879" s="5"/>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" ht="15" customHeight="1">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -21184,7 +21184,7 @@
       <c r="S880" s="6"/>
       <c r="T880" s="5"/>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" ht="15" customHeight="1">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -21206,7 +21206,7 @@
       <c r="S881" s="6"/>
       <c r="T881" s="5"/>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" ht="15" customHeight="1">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -21228,7 +21228,7 @@
       <c r="S882" s="6"/>
       <c r="T882" s="5"/>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" ht="15" customHeight="1">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -21250,7 +21250,7 @@
       <c r="S883" s="6"/>
       <c r="T883" s="5"/>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" ht="15" customHeight="1">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -21272,7 +21272,7 @@
       <c r="S884" s="6"/>
       <c r="T884" s="5"/>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" ht="15" customHeight="1">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -21294,7 +21294,7 @@
       <c r="S885" s="6"/>
       <c r="T885" s="5"/>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" ht="15" customHeight="1">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -21316,7 +21316,7 @@
       <c r="S886" s="6"/>
       <c r="T886" s="5"/>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" ht="15" customHeight="1">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -21338,7 +21338,7 @@
       <c r="S887" s="6"/>
       <c r="T887" s="5"/>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" ht="15" customHeight="1">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -21360,7 +21360,7 @@
       <c r="S888" s="6"/>
       <c r="T888" s="5"/>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" ht="15" customHeight="1">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -21382,7 +21382,7 @@
       <c r="S889" s="6"/>
       <c r="T889" s="5"/>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" ht="15" customHeight="1">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -21404,7 +21404,7 @@
       <c r="S890" s="6"/>
       <c r="T890" s="5"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" ht="15" customHeight="1">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -21426,7 +21426,7 @@
       <c r="S891" s="6"/>
       <c r="T891" s="5"/>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" ht="15" customHeight="1">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -21448,7 +21448,7 @@
       <c r="S892" s="6"/>
       <c r="T892" s="5"/>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" ht="15" customHeight="1">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -21470,7 +21470,7 @@
       <c r="S893" s="6"/>
       <c r="T893" s="5"/>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" ht="15" customHeight="1">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -21492,7 +21492,7 @@
       <c r="S894" s="6"/>
       <c r="T894" s="5"/>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" ht="15" customHeight="1">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -21514,7 +21514,7 @@
       <c r="S895" s="6"/>
       <c r="T895" s="5"/>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" ht="15" customHeight="1">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -21536,7 +21536,7 @@
       <c r="S896" s="6"/>
       <c r="T896" s="5"/>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" ht="15" customHeight="1">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -21558,7 +21558,7 @@
       <c r="S897" s="6"/>
       <c r="T897" s="5"/>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" ht="15" customHeight="1">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -21580,7 +21580,7 @@
       <c r="S898" s="6"/>
       <c r="T898" s="5"/>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" ht="15" customHeight="1">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -21602,7 +21602,7 @@
       <c r="S899" s="6"/>
       <c r="T899" s="5"/>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" ht="15" customHeight="1">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -21624,7 +21624,7 @@
       <c r="S900" s="6"/>
       <c r="T900" s="5"/>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" ht="15" customHeight="1">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -21646,7 +21646,7 @@
       <c r="S901" s="6"/>
       <c r="T901" s="5"/>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" ht="15" customHeight="1">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -21668,7 +21668,7 @@
       <c r="S902" s="6"/>
       <c r="T902" s="5"/>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" ht="15" customHeight="1">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -21690,7 +21690,7 @@
       <c r="S903" s="6"/>
       <c r="T903" s="5"/>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" ht="15" customHeight="1">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -21712,7 +21712,7 @@
       <c r="S904" s="6"/>
       <c r="T904" s="5"/>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" ht="15" customHeight="1">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -21734,7 +21734,7 @@
       <c r="S905" s="6"/>
       <c r="T905" s="5"/>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" ht="15" customHeight="1">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -21756,7 +21756,7 @@
       <c r="S906" s="6"/>
       <c r="T906" s="5"/>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" ht="15" customHeight="1">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -21778,7 +21778,7 @@
       <c r="S907" s="6"/>
       <c r="T907" s="5"/>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" ht="15" customHeight="1">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -21800,7 +21800,7 @@
       <c r="S908" s="6"/>
       <c r="T908" s="5"/>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" ht="15" customHeight="1">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -21822,7 +21822,7 @@
       <c r="S909" s="6"/>
       <c r="T909" s="5"/>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" ht="15" customHeight="1">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -21844,7 +21844,7 @@
       <c r="S910" s="6"/>
       <c r="T910" s="5"/>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" ht="15" customHeight="1">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -21866,7 +21866,7 @@
       <c r="S911" s="6"/>
       <c r="T911" s="5"/>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" ht="15" customHeight="1">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -21888,7 +21888,7 @@
       <c r="S912" s="6"/>
       <c r="T912" s="5"/>
     </row>
-    <row r="913" ht="12.75" customHeight="1">
+    <row r="913" ht="15" customHeight="1">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -21910,7 +21910,7 @@
       <c r="S913" s="6"/>
       <c r="T913" s="5"/>
     </row>
-    <row r="914" ht="12.75" customHeight="1">
+    <row r="914" ht="15" customHeight="1">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -21932,7 +21932,7 @@
       <c r="S914" s="6"/>
       <c r="T914" s="5"/>
     </row>
-    <row r="915" ht="12.75" customHeight="1">
+    <row r="915" ht="15" customHeight="1">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -21954,7 +21954,7 @@
       <c r="S915" s="6"/>
       <c r="T915" s="5"/>
     </row>
-    <row r="916" ht="12.75" customHeight="1">
+    <row r="916" ht="15" customHeight="1">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -21976,7 +21976,7 @@
       <c r="S916" s="6"/>
       <c r="T916" s="5"/>
     </row>
-    <row r="917" ht="12.75" customHeight="1">
+    <row r="917" ht="15" customHeight="1">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -21998,7 +21998,7 @@
       <c r="S917" s="6"/>
       <c r="T917" s="5"/>
     </row>
-    <row r="918" ht="12.75" customHeight="1">
+    <row r="918" ht="15" customHeight="1">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -22020,7 +22020,7 @@
       <c r="S918" s="6"/>
       <c r="T918" s="5"/>
     </row>
-    <row r="919" ht="12.75" customHeight="1">
+    <row r="919" ht="15" customHeight="1">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -22042,7 +22042,7 @@
       <c r="S919" s="6"/>
       <c r="T919" s="5"/>
     </row>
-    <row r="920" ht="12.75" customHeight="1">
+    <row r="920" ht="15" customHeight="1">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -22064,7 +22064,7 @@
       <c r="S920" s="6"/>
       <c r="T920" s="5"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1">
+    <row r="921" ht="15" customHeight="1">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -22086,7 +22086,7 @@
       <c r="S921" s="6"/>
       <c r="T921" s="5"/>
     </row>
-    <row r="922" ht="12.75" customHeight="1">
+    <row r="922" ht="15" customHeight="1">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -22108,7 +22108,7 @@
       <c r="S922" s="6"/>
       <c r="T922" s="5"/>
     </row>
-    <row r="923" ht="12.75" customHeight="1">
+    <row r="923" ht="15" customHeight="1">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -22130,7 +22130,7 @@
       <c r="S923" s="6"/>
       <c r="T923" s="5"/>
     </row>
-    <row r="924" ht="12.75" customHeight="1">
+    <row r="924" ht="15" customHeight="1">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -22152,7 +22152,7 @@
       <c r="S924" s="6"/>
       <c r="T924" s="5"/>
     </row>
-    <row r="925" ht="12.75" customHeight="1">
+    <row r="925" ht="15" customHeight="1">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -22174,7 +22174,7 @@
       <c r="S925" s="6"/>
       <c r="T925" s="5"/>
     </row>
-    <row r="926" ht="12.75" customHeight="1">
+    <row r="926" ht="15" customHeight="1">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -22196,7 +22196,7 @@
       <c r="S926" s="6"/>
       <c r="T926" s="5"/>
     </row>
-    <row r="927" ht="12.75" customHeight="1">
+    <row r="927" ht="15" customHeight="1">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -22218,7 +22218,7 @@
       <c r="S927" s="6"/>
       <c r="T927" s="5"/>
     </row>
-    <row r="928" ht="12.75" customHeight="1">
+    <row r="928" ht="15" customHeight="1">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -22240,7 +22240,7 @@
       <c r="S928" s="6"/>
       <c r="T928" s="5"/>
     </row>
-    <row r="929" ht="12.75" customHeight="1">
+    <row r="929" ht="15" customHeight="1">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -22262,7 +22262,7 @@
       <c r="S929" s="6"/>
       <c r="T929" s="5"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1">
+    <row r="930" ht="15" customHeight="1">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -22284,7 +22284,7 @@
       <c r="S930" s="6"/>
       <c r="T930" s="5"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1">
+    <row r="931" ht="15" customHeight="1">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -22306,7 +22306,7 @@
       <c r="S931" s="6"/>
       <c r="T931" s="5"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1">
+    <row r="932" ht="15" customHeight="1">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -22328,7 +22328,7 @@
       <c r="S932" s="6"/>
       <c r="T932" s="5"/>
     </row>
-    <row r="933" ht="12.75" customHeight="1">
+    <row r="933" ht="15" customHeight="1">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -22350,7 +22350,7 @@
       <c r="S933" s="6"/>
       <c r="T933" s="5"/>
     </row>
-    <row r="934" ht="12.75" customHeight="1">
+    <row r="934" ht="15" customHeight="1">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -22372,7 +22372,7 @@
       <c r="S934" s="6"/>
       <c r="T934" s="5"/>
     </row>
-    <row r="935" ht="12.75" customHeight="1">
+    <row r="935" ht="15" customHeight="1">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -22394,7 +22394,7 @@
       <c r="S935" s="6"/>
       <c r="T935" s="5"/>
     </row>
-    <row r="936" ht="12.75" customHeight="1">
+    <row r="936" ht="15" customHeight="1">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -22416,7 +22416,7 @@
       <c r="S936" s="6"/>
       <c r="T936" s="5"/>
     </row>
-    <row r="937" ht="12.75" customHeight="1">
+    <row r="937" ht="15" customHeight="1">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -22438,7 +22438,7 @@
       <c r="S937" s="6"/>
       <c r="T937" s="5"/>
     </row>
-    <row r="938" ht="12.75" customHeight="1">
+    <row r="938" ht="15" customHeight="1">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -22460,7 +22460,7 @@
       <c r="S938" s="6"/>
       <c r="T938" s="5"/>
     </row>
-    <row r="939" ht="12.75" customHeight="1">
+    <row r="939" ht="15" customHeight="1">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -22482,7 +22482,7 @@
       <c r="S939" s="6"/>
       <c r="T939" s="5"/>
     </row>
-    <row r="940" ht="12.75" customHeight="1">
+    <row r="940" ht="15" customHeight="1">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -22504,7 +22504,7 @@
       <c r="S940" s="6"/>
       <c r="T940" s="5"/>
     </row>
-    <row r="941" ht="12.75" customHeight="1">
+    <row r="941" ht="15" customHeight="1">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -22526,7 +22526,7 @@
       <c r="S941" s="6"/>
       <c r="T941" s="5"/>
     </row>
-    <row r="942" ht="12.75" customHeight="1">
+    <row r="942" ht="15" customHeight="1">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -22548,7 +22548,7 @@
       <c r="S942" s="6"/>
       <c r="T942" s="5"/>
     </row>
-    <row r="943" ht="12.75" customHeight="1">
+    <row r="943" ht="15" customHeight="1">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -22570,7 +22570,7 @@
       <c r="S943" s="6"/>
       <c r="T943" s="5"/>
     </row>
-    <row r="944" ht="12.75" customHeight="1">
+    <row r="944" ht="15" customHeight="1">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -22592,7 +22592,7 @@
       <c r="S944" s="6"/>
       <c r="T944" s="5"/>
     </row>
-    <row r="945" ht="12.75" customHeight="1">
+    <row r="945" ht="15" customHeight="1">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -22614,7 +22614,7 @@
       <c r="S945" s="6"/>
       <c r="T945" s="5"/>
     </row>
-    <row r="946" ht="12.75" customHeight="1">
+    <row r="946" ht="15" customHeight="1">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -22636,7 +22636,7 @@
       <c r="S946" s="6"/>
       <c r="T946" s="5"/>
     </row>
-    <row r="947" ht="12.75" customHeight="1">
+    <row r="947" ht="15" customHeight="1">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -22658,7 +22658,7 @@
       <c r="S947" s="6"/>
       <c r="T947" s="5"/>
     </row>
-    <row r="948" ht="12.75" customHeight="1">
+    <row r="948" ht="15" customHeight="1">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -22680,7 +22680,7 @@
       <c r="S948" s="6"/>
       <c r="T948" s="5"/>
     </row>
-    <row r="949" ht="12.75" customHeight="1">
+    <row r="949" ht="15" customHeight="1">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -22702,7 +22702,7 @@
       <c r="S949" s="6"/>
       <c r="T949" s="5"/>
     </row>
-    <row r="950" ht="12.75" customHeight="1">
+    <row r="950" ht="15" customHeight="1">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -22724,7 +22724,7 @@
       <c r="S950" s="6"/>
       <c r="T950" s="5"/>
     </row>
-    <row r="951" ht="12.75" customHeight="1">
+    <row r="951" ht="15" customHeight="1">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -22746,7 +22746,7 @@
       <c r="S951" s="6"/>
       <c r="T951" s="5"/>
     </row>
-    <row r="952" ht="12.75" customHeight="1">
+    <row r="952" ht="15" customHeight="1">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -22768,7 +22768,7 @@
       <c r="S952" s="6"/>
       <c r="T952" s="5"/>
     </row>
-    <row r="953" ht="12.75" customHeight="1">
+    <row r="953" ht="15" customHeight="1">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -22790,7 +22790,7 @@
       <c r="S953" s="6"/>
       <c r="T953" s="5"/>
     </row>
-    <row r="954" ht="12.75" customHeight="1">
+    <row r="954" ht="15" customHeight="1">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -22812,7 +22812,7 @@
       <c r="S954" s="6"/>
       <c r="T954" s="5"/>
     </row>
-    <row r="955" ht="12.75" customHeight="1">
+    <row r="955" ht="15" customHeight="1">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -22834,7 +22834,7 @@
       <c r="S955" s="6"/>
       <c r="T955" s="5"/>
     </row>
-    <row r="956" ht="12.75" customHeight="1">
+    <row r="956" ht="15" customHeight="1">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -22856,7 +22856,7 @@
       <c r="S956" s="6"/>
       <c r="T956" s="5"/>
     </row>
-    <row r="957" ht="12.75" customHeight="1">
+    <row r="957" ht="15" customHeight="1">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -22878,7 +22878,7 @@
       <c r="S957" s="6"/>
       <c r="T957" s="5"/>
     </row>
-    <row r="958" ht="12.75" customHeight="1">
+    <row r="958" ht="15" customHeight="1">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -22900,7 +22900,7 @@
       <c r="S958" s="6"/>
       <c r="T958" s="5"/>
     </row>
-    <row r="959" ht="12.75" customHeight="1">
+    <row r="959" ht="15" customHeight="1">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -22922,7 +22922,7 @@
       <c r="S959" s="6"/>
       <c r="T959" s="5"/>
     </row>
-    <row r="960" ht="12.75" customHeight="1">
+    <row r="960" ht="15" customHeight="1">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -22944,7 +22944,7 @@
       <c r="S960" s="6"/>
       <c r="T960" s="5"/>
     </row>
-    <row r="961" ht="12.75" customHeight="1">
+    <row r="961" ht="15" customHeight="1">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -22966,7 +22966,7 @@
       <c r="S961" s="6"/>
       <c r="T961" s="5"/>
     </row>
-    <row r="962" ht="12.75" customHeight="1">
+    <row r="962" ht="15" customHeight="1">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -22988,7 +22988,7 @@
       <c r="S962" s="6"/>
       <c r="T962" s="5"/>
     </row>
-    <row r="963" ht="12.75" customHeight="1">
+    <row r="963" ht="15" customHeight="1">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -23010,7 +23010,7 @@
       <c r="S963" s="6"/>
       <c r="T963" s="5"/>
     </row>
-    <row r="964" ht="12.75" customHeight="1">
+    <row r="964" ht="15" customHeight="1">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -23032,7 +23032,7 @@
       <c r="S964" s="6"/>
       <c r="T964" s="5"/>
     </row>
-    <row r="965" ht="12.75" customHeight="1">
+    <row r="965" ht="15" customHeight="1">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -23054,7 +23054,7 @@
       <c r="S965" s="6"/>
       <c r="T965" s="5"/>
     </row>
-    <row r="966" ht="12.75" customHeight="1">
+    <row r="966" ht="15" customHeight="1">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -23076,7 +23076,7 @@
       <c r="S966" s="6"/>
       <c r="T966" s="5"/>
     </row>
-    <row r="967" ht="12.75" customHeight="1">
+    <row r="967" ht="15" customHeight="1">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -23098,7 +23098,7 @@
       <c r="S967" s="6"/>
       <c r="T967" s="5"/>
     </row>
-    <row r="968" ht="12.75" customHeight="1">
+    <row r="968" ht="15" customHeight="1">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -23120,7 +23120,7 @@
       <c r="S968" s="6"/>
       <c r="T968" s="5"/>
     </row>
-    <row r="969" ht="12.75" customHeight="1">
+    <row r="969" ht="15" customHeight="1">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -23142,7 +23142,7 @@
       <c r="S969" s="6"/>
       <c r="T969" s="5"/>
     </row>
-    <row r="970" ht="12.75" customHeight="1">
+    <row r="970" ht="15" customHeight="1">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -23164,7 +23164,7 @@
       <c r="S970" s="6"/>
       <c r="T970" s="5"/>
     </row>
-    <row r="971" ht="12.75" customHeight="1">
+    <row r="971" ht="15" customHeight="1">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -23186,7 +23186,7 @@
       <c r="S971" s="6"/>
       <c r="T971" s="5"/>
     </row>
-    <row r="972" ht="12.75" customHeight="1">
+    <row r="972" ht="15" customHeight="1">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -23208,7 +23208,7 @@
       <c r="S972" s="6"/>
       <c r="T972" s="5"/>
     </row>
-    <row r="973" ht="12.75" customHeight="1">
+    <row r="973" ht="15" customHeight="1">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -23230,7 +23230,7 @@
       <c r="S973" s="6"/>
       <c r="T973" s="5"/>
     </row>
-    <row r="974" ht="12.75" customHeight="1">
+    <row r="974" ht="15" customHeight="1">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -23252,7 +23252,7 @@
       <c r="S974" s="6"/>
       <c r="T974" s="5"/>
     </row>
-    <row r="975" ht="12.75" customHeight="1">
+    <row r="975" ht="15" customHeight="1">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -23274,7 +23274,7 @@
       <c r="S975" s="6"/>
       <c r="T975" s="5"/>
     </row>
-    <row r="976" ht="12.75" customHeight="1">
+    <row r="976" ht="15" customHeight="1">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -23296,7 +23296,7 @@
       <c r="S976" s="6"/>
       <c r="T976" s="5"/>
     </row>
-    <row r="977" ht="12.75" customHeight="1">
+    <row r="977" ht="15" customHeight="1">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -23318,7 +23318,7 @@
       <c r="S977" s="6"/>
       <c r="T977" s="5"/>
     </row>
-    <row r="978" ht="12.75" customHeight="1">
+    <row r="978" ht="15" customHeight="1">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -23340,7 +23340,7 @@
       <c r="S978" s="6"/>
       <c r="T978" s="5"/>
     </row>
-    <row r="979" ht="12.75" customHeight="1">
+    <row r="979" ht="15" customHeight="1">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -23362,7 +23362,7 @@
       <c r="S979" s="6"/>
       <c r="T979" s="5"/>
     </row>
-    <row r="980" ht="12.75" customHeight="1">
+    <row r="980" ht="15" customHeight="1">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -23384,7 +23384,7 @@
       <c r="S980" s="6"/>
       <c r="T980" s="5"/>
     </row>
-    <row r="981" ht="12.75" customHeight="1">
+    <row r="981" ht="15" customHeight="1">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -23406,7 +23406,7 @@
       <c r="S981" s="6"/>
       <c r="T981" s="5"/>
     </row>
-    <row r="982" ht="12.75" customHeight="1">
+    <row r="982" ht="15" customHeight="1">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -23428,7 +23428,7 @@
       <c r="S982" s="6"/>
       <c r="T982" s="5"/>
     </row>
-    <row r="983" ht="12.75" customHeight="1">
+    <row r="983" ht="15" customHeight="1">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -23450,7 +23450,7 @@
       <c r="S983" s="6"/>
       <c r="T983" s="5"/>
     </row>
-    <row r="984" ht="12.75" customHeight="1">
+    <row r="984" ht="15" customHeight="1">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -23472,7 +23472,7 @@
       <c r="S984" s="6"/>
       <c r="T984" s="5"/>
     </row>
-    <row r="985" ht="12.75" customHeight="1">
+    <row r="985" ht="15" customHeight="1">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
